--- a/crawler/db/step1.xlsx
+++ b/crawler/db/step1.xlsx
@@ -9,11 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="13005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="13005" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="a_conf" sheetId="2" r:id="rId1"/>
     <sheet name="a_jor" sheetId="1" r:id="rId2"/>
+    <sheet name="b_conf" sheetId="3" r:id="rId3"/>
+    <sheet name="b_jor" sheetId="4" r:id="rId4"/>
+    <sheet name="中文" sheetId="5" r:id="rId5"/>
+    <sheet name="c_conf" sheetId="6" r:id="rId6"/>
+    <sheet name="c_jor" sheetId="7" r:id="rId7"/>
+    <sheet name="arXiv" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="902">
   <si>
     <t>id</t>
   </si>
@@ -651,6 +657,2105 @@
   <si>
     <t>Search Rank Fraud and Malware Detection in Google Play</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frequent subgraph based familial classification of android malware</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/abstract/document/7774504/</t>
+  </si>
+  <si>
+    <t>http://www4.comp.polyu.edu.hk/~csxluo/FalDroid.pdf</t>
+  </si>
+  <si>
+    <t>10.1109/ISSRE.2016.14</t>
+  </si>
+  <si>
+    <t>International Symposium on Software Reliability Engineering</t>
+  </si>
+  <si>
+    <t>Malware,Androids,Humanoid robots,Feature extraction,Smart phones,Frequency measurement,Semantics</t>
+  </si>
+  <si>
+    <t>The rapid growth of Android malware poses great challenges to anti-malware systems because the sheer number of malware samples overwhelm malware analysis systems. A promising approach for speeding up malware analysis is to classify malware samples into families so that the common features in malwares belonging to the same family can be exploited for malware detection and inspection. However, the accuracy of existing classification solutions is limited because of two reasons. First, since the majority of Android malware is constructed by inserting malicious components into popular apps, the malware's legitimate part may misguide the classification algorithms. Second, the polymorphic variants of Android malware could evade the detection by employing transformation attacks. In this paper, we propose a novel approach that constructs frequent subgraph (fregraph) to represent the common behaviors of malwares in the same family for familial classification of Android malware. Moreover, we propose and develop FalDroid, an automatic system for classifying Android malware according to fregraph, and apply it to 6,565 malware samples from 30 families. The experimental results show that FalDroid can correctly classify 94.5% malwares into their families using around 4.4s per app.</t>
+  </si>
+  <si>
+    <t>Cypider: Building community-based cyber-defense infrastructure for android malware detection</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=2991124</t>
+  </si>
+  <si>
+    <t>10.1145/2991079.2991124</t>
+  </si>
+  <si>
+    <t>Annual Computer Security Applications Conference</t>
+  </si>
+  <si>
+    <t>android,community detection,fingerprinting,malware</t>
+  </si>
+  <si>
+    <t>The popularity of Android OS has dramatically increased malware apps targeting this mobile OS. The daily amount of malware has overwhelmed the detection process. This fact has motivated the need for developing malware detection and family attribution solutions with the least manual intervention. In response, we propose Cypider framework, a set of techniques and tools aiming to perform a systematic detection of mobile malware by building an efficient and scalable similarity network infrastructure of malicious apps. Our detection method is based on a novel concept, namely malicious community, in which we consider, for a given family, the instances that share common features. Under this concept, we assume that multiple similar Android apps with different authors are most likely to be malicious. Cypider leverages this assumption for the detection of variants of known malware families and zero-day malware. It is important to mention that Cypider does not rely on signature-based or learning-based patterns. Alternatively, it applies community detection algorithms on the similarity network, which extracts sub-graphs considered as suspicious and most likely malicious communities. Furthermore, we propose a novel fingerprinting technique, namely community fingerprint, based on a learning model for each malicious community. Cypider shows excellent results by detecting about 50% of the malware dataset in one detection iteration. Besides, the preliminary results of the community fingerprint are promising as we achieved 87% of the detection.</t>
+  </si>
+  <si>
+    <t>IntelliDroid: A Targeted Input Generator for the Dynamic Analysis of Android Malware.</t>
+  </si>
+  <si>
+    <t>https://www.semanticscholar.org/paper/IntelliDroid-A-Targeted-Input-Generator-for-the-Dy-Wong-Lie/17138b471f2dade960cd3969db0c08b623b33797</t>
+  </si>
+  <si>
+    <t>https://pdfs.semanticscholar.org/4861/5e390327ca5218aef018c60938f0f2dc482b.pdf</t>
+  </si>
+  <si>
+    <t>ISOC Network and Distributed System Security Symposium</t>
+  </si>
+  <si>
+    <t>Droid,Dynamic Analysis,Malware,API,Malicious Behavior</t>
+  </si>
+  <si>
+    <t>Are these Ads Safe: Detecting Hidden Attacks through the Mobile App-Web Interfaces.</t>
+  </si>
+  <si>
+    <t>https://www.semanticscholar.org/paper/Are-these-Ads-Safe-Detecting-Hidden-Attacks-throug-Rastogi-Shao/2d11976041b91505ca4fa775ca31364db4a49014</t>
+  </si>
+  <si>
+    <t>http://www.internetsociety.org/sites/default/files/blogs-media/ads-safe-detecting-hidden-attacks-through-mobile-app-web-interfaces.pdf</t>
+  </si>
+  <si>
+    <t>Advertisement,SCAM,Web Link,Campaign,Malware</t>
+  </si>
+  <si>
+    <t>Mobile users are increasingly becoming targets of malware infections and scams. Some platforms, such as Android, are more open than others and are therefore easier to exploit than other platforms. In order to curb such attacks it is important to know how these attacks originate. We take a previously unexplored step in this direction and look for the answer at the interface between mobile apps and the Web. Numerous inapp advertisements work at this interface: when the user taps on an advertisement, she is led to a web page which may further redirect until the user reaches the final destination. Similarly, applications also embed web links that again lead to the outside Web. Even though the original application may not be malicious, the Web destinations that the user visits could play an important role in propagating attacks. In order to study such attacks we develop a systematic methodology consisting of three components related to triggering web links and advertisements, detecting malware and scam campaigns, and determining the provenance of such campaigns reaching the user. We have realized this methodology through various techniques and contributions and have developed a robust, integrated system capable of running continuously without human intervention. We deployed this system for a two-month period and analyzed over 600,000 applications in the United States and in China while triggering a total of about 1.5 million links in applications to the Web. We gain a general understanding of attacks through the app-web interface as well as make several interesting findings, including a rogue antivirus scam, free iPad and iPhone scams, and advertisements propagating SMS trojans disguised as fake movie players. In broader terms, our system enables locating attacks and identifying the parties (such as specific ad networks, websites, and applications) that intentionally or unintentionally let them reach the end users and, thus, increasing accountability from these parties.</t>
+  </si>
+  <si>
+    <t>Detecting sensitive data disclosure via bi-directional text correlation analysis</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=2950348</t>
+  </si>
+  <si>
+    <t>https://www.ece.uwaterloo.ca/~lintan/publications/bidText-fse16.pdf</t>
+  </si>
+  <si>
+    <t>10.1145/2950290.2950348</t>
+  </si>
+  <si>
+    <t>Fast Software Encryption</t>
+  </si>
+  <si>
+    <t>android apps,bi-directional text correlation,sensitive data disclosure,software security engineering,software testing and debugging</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Traditional sensitive data disclosure analysis faces two challenges: to identify sensitive data that is not generated by specific API calls, and to report the potential disclosures when the disclosed data is recognized as sensitive only after the sink operations. We address these issues by developing BidText, a novel static technique to detect sensitive data disclosures. BidText formulates the problem as a type system, in which variables are typed with the text labels that they encounter (e.g., during key-value pair operations). The type system features a novel bi-directional propagation technique that propagates the variable label sets through forward and backward data-flow. A data disclosure is reported if a parameter at a sink point is typed with a sensitive text label. BidText is evaluated on 10,000 Android apps. It reports 4,406 apps that have sensitive data disclosures, with 4,263 apps having log based disclosures and 1,688 having disclosures due to other sinks such as HTTP requests. Existing techniques can only report 64.0% of what BidText reports. And manual inspection shows that the false positive rate for BidText is 10%. </t>
+  </si>
+  <si>
+    <t>CrashFuzzer: Detecting input processing related crash bugs in android applications</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/abstract/document/7820625/</t>
+  </si>
+  <si>
+    <t>10.1109/PCCC.2016.7820625</t>
+  </si>
+  <si>
+    <t>International Symposium on Computer Performance, Modeling, Measurements and Evaluation</t>
+  </si>
+  <si>
+    <t>Computer bugs,Androids,Humanoid robots,Smart phones,Testing,Java</t>
+  </si>
+  <si>
+    <t>Android has become the largest-selling operating system for smartphones, and thousands of new Android applications are developed and published everyday. However, quality, not quantity, is the real mobile application problem. The robustness of Android applications are worrisome as many of them always have crash bugs. It's unrealistic to rely on developers' experience to eliminate them all. There are so many input sources and we cannot assume developers will check all data from them properly. And some Android system services suffer denial-of-service attacks because of crash bugs due to their poor input validation. Crash bugs not only degrade user experience but also may raise security issues. In this paper, we propose a heuristic approach which combines static analysis and semi-random input generation to detect crash bugs related to input data processing in Android applications. We present techniques for automatic generating input data, injecting them to an application, producing structured trace information. We perform experiments on 100 Android applications and find 28 of them have crash bugs due to their poor input validation. We believe our study and techniques also have the potential to release developers from boring testing tasks to a certain extent and help developers improve quality of their Android applications.</t>
+  </si>
+  <si>
+    <t>Semantic modelling of android malware for effective malware comprehension, detection, and classification</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=2931043</t>
+  </si>
+  <si>
+    <t>10.1145/2931037.2931043</t>
+  </si>
+  <si>
+    <t>International Symposium on Software Testing and Analysis</t>
+  </si>
+  <si>
+    <t>abstraction, modeling and modularity,android malware detection,clone detection,determined symbolic automata,malware and its mitigation,malware modelling,program analysis,software security engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Malware has posed a major threat to the Android ecosystem. Existing malware detection tools mainly rely on signature- or feature- based approaches, failing to provide detailed information beyond the mere detection. In this work, we propose a precise semantic model of Android malware based on Deterministic Symbolic Automaton (DSA) for the purpose of malware comprehension, detection and classification. It shows that DSA can capture the common malicious behaviors of a malware family, as well as the malware variants. Based on DSA, we develop an automatic analysis framework, named SMART, which learns DSA by detecting and summarizing semantic clones from malware families, and then extracts semantic features from the learned DSA to classify malware according to the attack patterns. We conduct the experiments in both malware benchmark and 223,170 real-world apps. The results show that SMART builds meaningful semantic models and outperforms both state-of-the-art approaches and anti-virus tools in malware detection. SMART identifies 4583 new malware in real-world apps that are missed by most anti-virus tools. The classification step further identifies new malware variants and unknown families. </t>
+  </si>
+  <si>
+    <t>Code relatives: Detecting similarly behaving software</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=2950321</t>
+  </si>
+  <si>
+    <t>https://pdfs.semanticscholar.org/ba10/b95ae2c6fe8d1f7a0c07c00dd0c652757e4f.pdf</t>
+  </si>
+  <si>
+    <t>10.1145/2950290.2950321</t>
+  </si>
+  <si>
+    <t>assembly languages,code clones,code relatives,link analysis,nearest-neighbor search,runtime behavior,software maintenance tools,subgraph matching</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Detecting “similar code” is useful for many software engineering tasks. Current tools can help detect code with statically similar syntactic and–or semantic features (code clones) and with dynamically similar functional input/output (simions). Unfortunately, some code fragments that behave similarly at the finer granularity of their execution traces may be ignored. In this paper, we propose the term “code relatives” to refer to code with similar execution behavior. We define code relatives and then present DyCLINK, our approach to detecting code relatives within and across codebases. DyCLINK records instruction-level traces from sample executions, organizes the traces into instruction-level dynamic dependence graphs, and employs our specialized subgraph matching algorithm to efficiently compare the executions of candidate code relatives. In our experiments, DyCLINK analyzed 422+ million prospective subgraph matches in only 43 minutes. We compared DyCLINK to one static code clone detector from the community and to our implementation of a dynamic simion detector. The results show that DyCLINK effectively detects code relatives with a reasonable analysis time. </t>
+  </si>
+  <si>
+    <t>Android malware detection using complex-flows</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/abstract/document/7980206/</t>
+  </si>
+  <si>
+    <t>http://cs.ucf.edu/~mohaisen/doc/17-icdcs-android.pdf</t>
+  </si>
+  <si>
+    <t>10.1109/ICDCS.2017.190</t>
+  </si>
+  <si>
+    <t>International Conference on Distributed Computing Systems</t>
+  </si>
+  <si>
+    <t>Malware,Mobile communication,Androids,Humanoid robots,Sensors,Internet,Google</t>
+  </si>
+  <si>
+    <t>This paper proposes a new technique to detect mobile malware based on information flow analysis. Our approach examines the structure of information flows to identify patterns of behavior present in them and which flows are related, those that share partial computation paths. We call such flows Complex-Flows, as their structure, patterns, and relations accurately capture the complex behavior exhibited by both recent malware and benign applications. N-gram analysis is used to identify unique and common behavioral patterns present in Complex-Flows. The N-gram analysis is performed on sequences of API calls that occur along Complex-Flows' control flow paths. We show the precision of our technique by applying it to different data sets totaling 7,798 apps. These data sets consist of both recent and older generation benign and malicious apps to demonstrate the effectiveness of our approach across different generations of apps.</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=3121279</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Suhaib_Mujahid/publication/318873850_Detecting_wearable_app_permission_mismatches_a_case_study_on_Android_wear/links/59946610aca272ec9087f7ec/Detecting-wearable-app-permission-mismatches-a-case-study-on-Android-wear.pdf</t>
+  </si>
+  <si>
+    <t>10.1145/3106237.3121279</t>
+  </si>
+  <si>
+    <t>android wear,detect,mismatch,parsers,permissions,software configuration management and version control systems,software maintenance tools</t>
+  </si>
+  <si>
+    <t>RepDroid: an automated tool for Android application repackaging detection</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=3101431</t>
+  </si>
+  <si>
+    <t>http://moon.nju.edu.cn/people/junma/static/files/Repdroid(pre-print).pdf</t>
+  </si>
+  <si>
+    <t>10.1109/ICPC.2017.16</t>
+  </si>
+  <si>
+    <t>IEEE International Conference on Program Comprehension</t>
+  </si>
+  <si>
+    <t>android application,obfuscation resilient,repackaging detection,user interface</t>
+  </si>
+  <si>
+    <t>In recent years, with the explosive growth of mobile smart phones, the number of Android applications (apps) increases rapidly. Attackers usually leverage the popularity of Android apps by inserting malwares, modifying the original apps, repackaging and releasing them for their own illegal purposes. To avoid repackaged apps from being detected, they usually use sorts of obfuscation and encryption tools. As a result, it's important to detect which apps are repackaged. People often intuitively judge whether two apps are a repackaged pair by executing them and observing their runtime user interface (UI) traces. Hence, we propose layout group graph (LGG) built from UI trances to model those UI behaviors and use LGG as the birthmark of Android apps for identification. Based on LGG, we also implement a dynamic repackaging detection tool, RepDroid. Since our method does not require the apps' source code, it is resilient to app obfuscation and encryption. We conducted an experiment with two data sets. The first set contains 98 pairs of repackaged apps. The original apps and repackaged ones are compared and we can detect all of these repackaged pairs. The second set contains 125 commercial apps. We compared them pair-wisely and the false positive rate was 0.08%.</t>
+  </si>
+  <si>
+    <t>On automatically detecting similar android apps</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/abstract/document/7503721/</t>
+  </si>
+  <si>
+    <t>https://pdfs.semanticscholar.org/430b/4c08b7cc4d34e62f947a6f99e10f2da0f57a.pdf</t>
+  </si>
+  <si>
+    <t>10.1109/ICPC.2016.7503721</t>
+  </si>
+  <si>
+    <t>Semantics,Androids,Humanoid robots,Google,Sensors,Libraries,Time division multiplexing</t>
+  </si>
+  <si>
+    <t>Detecting similar applications is a challenging problem, since it implies that similar high-level features and their low-level implementations can be detected and matched automatically. We propose an approach for automatically detecting Closely reLated applications in ANdroid (CLANdroid) by relying on advanced Information Retrieval techniques and five semantic anchors: identifiers, Android APIs, intents, permissions, and sensors. To evaluate CLANdroid we created a benchmark consisting of 14,450 apps along with information on similar apps provided by Google Play. We also compared effectiveness of different semantic anchors for detecting similar apps as perceived by 27 users. The results show that using Android-specific semantic anchors are useful for detecting similar Android apps across different categories. We also measured the impact of third-party libraries and obfuscated code when identifying similar Android apps, and our results suggest that there is significant difference in the accuracy when third-party libraries are excluded.</t>
+  </si>
+  <si>
+    <t>Android repository mining for detecting publicly accessible functions missing permission checks</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=3101455</t>
+  </si>
+  <si>
+    <t>http://ink.library.smu.edu.sg/cgi/viewcontent.cgi?article=4685&amp;context=sis_research</t>
+  </si>
+  <si>
+    <t>10.1109/ICPC.2017.14</t>
+  </si>
+  <si>
+    <t>android,call graph,dependency,information retrieval,program analysis,program comprehension</t>
+  </si>
+  <si>
+    <t>Android has become the most popular mobile operating system. Millions of applications, including many malware, haven been developed for it. Even though its overall system architecture and many APIs are documented, many other methods and implementation details are not, not to mention potential bugs and vulnerabilities that may be exploited. Manual documentation may also be easily outdated as Android evolves constantly with changing features and higher complexities. Techniques and tool supports are thus needed to automatically extract information from different versions of Android to facilitate whole-system analysis of undocumented code. This paper presents an approach for alleviating the challenges associated with whole-system analysis. It performs usual program analysis for different versions of Android by control-flow and data-flow analyses. More importantly, it integrates information retrieval and query heuristics to customize the graphs for purposes related to the queries and make whole-system analyses more efficient. In particular, we use the approach to identify functions in Android that can be invoked by applications in either benign or malicious way, which are referred to as publicly accessible functions in this paper, and with the queries we provided, identify functions that may access sensitive system and/or user data and should be protected by certain permission checks. Based on such information, we can detect some publicly accessible functions in the system that may miss sufficient permission checks. As a proof of concept, this paper has analyzed six Android versions and shows basic statistics about the publicly accessible functions in the Android versions, and detects and verifies several system functions that miss permission checks and may have security implications.</t>
+  </si>
+  <si>
+    <t>Droid-AntiRM: Taming Control Flow Anti-analysis to Support Automated Dynamic Analysis of Android Malware</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/citation.cfm?id=3134601&amp;CFID=840755791&amp;CFTOKEN=20377698</t>
+  </si>
+  <si>
+    <t>http://www.cse.psu.edu/~sxz16/papers/ACSAC2017.pdf</t>
+  </si>
+  <si>
+    <t>10.1145/3134600.3134601</t>
+  </si>
+  <si>
+    <t>android malware,anti-analysis,dynamic analysis,malware and its mitigation,symbolic data flow analysis</t>
+  </si>
+  <si>
+    <t>While many test input generation techniques have been proposed to improve the code coverage of dynamic analysis, they are still inefficient in triggering hidden malicious behaviors protected by anti-analysis techniques. In this work, we design and implement Droid-AntiRM, a new approach seeking to tame anti-analysis automatically and improve automated dynamic analysis. Our approach leverages three key observations: 1) Logic-bomb based anti-analysis techniques control the execution of certain malicious behaviors; 2) Anti-analysis techniques are normally implemented through condition statements; 3) Anti-analysis techniques normally have no dependence on program inputs. Based on these observations, Droid-AntiRM uses various techniques to detect anti-analysis in malware samples, and rewrite the condition statements in anti-analysis cases through bytecode instrumentation, thus forcing the hidden behavior to be executed at runtime. Through a study of 3187 malware samples, we find that 32.50% of them employ various anti-analysis techniques. Our experiments demonstrate that Droid-AntiRM can identify anti-analysis instances from 30 malware samples with a true positive rate of 89.15% and zero false negative. By taming the identified anti-analysis, Droid-AntiRM can greatly improve the automated dynamic analysis, successfully triggering 44 additional hidden malicious behaviors from the 30 samples. Further performance evaluation shows that Droid-AntiRM has good efficiency to perform large-scale analysis.</t>
+  </si>
+  <si>
+    <t>Detecting and defending against inter-app permission leaks in android apps</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/abstract/document/7820624/</t>
+  </si>
+  <si>
+    <t>10.1109/PCCC.2016.7820624</t>
+  </si>
+  <si>
+    <t>Androids,Humanoid robots,Authorization,Computer bugs,Receivers,Smart phones</t>
+  </si>
+  <si>
+    <t>Android encourages inter-app interactions and facilitates functionality reusability by providing flexible inter-component communication (ICC) among apps. Components in apps can communicate with other components within single app or cross different apps. However, through this mechanism, components may leak permissions either carelessly or maliciously. Unfortunately, the current app-level permission model in Android cannot prevent such permissions leaks incurred by inter app communication. Simple permission enforcement is not sufficient as it cannot differentiate between normal permission usage and malicious permission usage (i.e., permission leakage). Therefore, users are required to grant permissions to apps during app installation, which may lead to permission mismanaged. In this paper, we propose IntentChecker that aims to detect permission leakage by proposing a light-weight mechanism. IntentChecker defends against the permission leakage attacks by adding authorization extension to the ICC mechanism and automatically generating patches for vulnerable apps. We evaluate IntentChecker with two benchmarks, i.e., Droidbench and ICCbench, and with 4031 real world apps. IntentChecker finds 324 apps that includes at least one permission leakage. We verify the effectiveness of the defense mechanism with 10 apps randomly selected from the vulnerable apps, which demonstrates that it is effective to prevent inter app permission leakage.</t>
+  </si>
+  <si>
+    <t>Understanding the Market-level and Network-level Behaviors of the Android Malware Ecosystem</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/abstract/document/7980209/</t>
+  </si>
+  <si>
+    <t>https://pdfs.semanticscholar.org/634a/41f2dd3c939cdc4ee1be4ea9395ba78eef07.pdf</t>
+  </si>
+  <si>
+    <t>10.1109/ICDCS.2017.297</t>
+  </si>
+  <si>
+    <t>Malware,Androids,Humanoid robots,Smart phones,Servers,Ecosystems,IP networks</t>
+  </si>
+  <si>
+    <t>The prevalence of malware in Android marketplaces is a growing and significant problem. Most existing studies focus on detecting Android malware or designing new security extensions to defend against specific types of attacks. In this paper, we perform an empirical study on analyzing the market-level and network-level behaviors of the Android malware ecosystem. We focus on studying whether there are interesting characteristics of those market accounts that distribute malware and specific networks that are mainly utilized by Android malware authors. We further investigate community patterns among Android malware from the perspective of their market account infrastructure and remote server infrastructure. Spurred by these analysis, we design a novel community inference algorithm to find more malicious apps by exploiting their community relationships. By using a small seed set (50) of known malicious apps, we can effectively find another extra 20 times of malicious apps, while maintaining considerable accuracy higher than 94%.</t>
+  </si>
+  <si>
+    <t>Detection of Android malware: Combined with static analysis and dynamic analysis</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/abstract/document/7568448/</t>
+  </si>
+  <si>
+    <t>10.1109/HPCSim.2016.7568448</t>
+  </si>
+  <si>
+    <t>Decision support systems</t>
+  </si>
+  <si>
+    <t>This study combines static and dynamic types of analysis to design a malware detection system for Android. This system enables a user to apply static analysis to check an application on their mobile phone before setup; if there is problem, it will be uploaded to the server for dynamic analysis. The dynamic analysis runs the application in a sandbox simulator, and then uses the tool designed in this study to analyze the simulator record file, so as to determine whether there is suspicious action, and then inform the user of the result. In terms of dynamic analysis, this study aims to modify twelve important functions of the Android simulator, so that their related activities can be recorded in more detailed when these functions are activated, in order to help further determination. The static analysis proposed in this study can be executed on a mobile phone, while the dynamic analysis will be uploaded to the server, as it requires significant hardware resources.</t>
+  </si>
+  <si>
+    <t>While dynamic malware analysis methods generally provide better precision than purely static methods, they have the key drawback that they can only detect malicious behavior if it is executed during analysis. This requires inputs that trigger the malicious behavior to be applied during execution. All current methods, such as hard-coded tests, random fuzzing and concolic testing, can provide good coverage but are inefficient because they are unaware of the specific capabilities of the dynamic analysis tool. In this work, we introduce IntelliDroid, a generic Android input generator that can be configured to produce inputs specific to a dynamic analysis tool, for the analysis of any Android application. Furthermore, IntelliDroid is capable of determining the precise order that the inputs must be injected, and injects them at what we call the device-framework interface such that system fidelity is preserved. This enables it to be paired with full-system dynamic analysis tools such as TaintDroid. Our experiments demonstrate that IntelliDroid requires an average of 72 inputs and only needs to execute an average of 5% of the application to detect malicious behavior. When evaluated on 75 instances of malicious behavior, IntelliDroid successfully identifies the behavior, extracts path constraints, and executes the malicious code in all but 5 cases. On average, IntelliDroid performs these tasks in 138.4 seconds per application.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wearable devices are becoming increasingly popular. These wearable devices run what is known as wearable apps. Wearable apps are packaged with handheld apps, that must be installed on the accompanying handheld device (e.g., phone). </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detecting wearable app permission mismatches: a case study on Android wear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Deep Learning Method to Detect Code Injection Attacks on Hybrid Applications</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0164121217302571</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t>10.1016/j.jss.2017.11.001</t>
+  </si>
+  <si>
+    <t>Journal of Systems and Software</t>
+  </si>
+  <si>
+    <t>Code injection,Hybrid application,Abstract syntax tree,Deep learning</t>
+  </si>
+  <si>
+    <t>â¢The hybrid deep learning network is proposed to detect code injection attacks.â¢New features are extracted from the abstract syntax tree of JavaScript.â¢Information Gain and Chi-square Test are used to select key features.â¢Our detection approach with HDLN achieves 97.60% in AUC, superior to other methods.</t>
+  </si>
+  <si>
+    <t>Spam mobile apps: Characteristics, detection, and in the wild analysis</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=3007901</t>
+  </si>
+  <si>
+    <t>https://research.csiro.au/ng/wp-content/uploads/sites/106/2017/06/TWEB_2017.pdf</t>
+  </si>
+  <si>
+    <t>10.1145/3007901</t>
+  </si>
+  <si>
+    <t>ACM Transactions on the Web</t>
+  </si>
+  <si>
+    <t>algorithms,android,design,mobile apps,performance,spam,spam apps</t>
+  </si>
+  <si>
+    <t>The increased popularity of smartphones has attracted a large number of developers to offer various applications for the different smartphone platforms via the respective app markets. One consequence of this popularity is that the app markets are also becoming populated with spam apps. These spam apps reduce the users’ quality of experience and increase the workload of app market operators to identify these apps and remove them. Spam apps can come in many forms such as apps not having a specific functionality, those having unrelated app descriptions or unrelated keywords, or similar apps being made available several times and across diverse categories. Market operators maintain antispam policies and apps are removed through continuous monitoring. Through a systematic crawl of a popular app market and by identifying apps that were removed over a period of time, we propose a method to detect spam apps solely using app metadata available at the time of publication. We first propose a methodology to manually label a sample of removed apps, according to a set of checkpoint heuristics that reveal the reasons behind removal. This analysis suggests that approximately 35% of the apps being removed are very likely to be spam apps. We then map the identified heuristics to several quantifiable features and show how distinguishing these features are for spam apps. We build an Adaptive Boost classifier for early identification of spam apps using only the metadata of the apps. Our classifier achieves an accuracy of over 95% with precision varying between 85% and 95% and recall varying between 38% and 98%. We further show that a limited number of features, in the range of 10--30, generated from app metadata is sufficient to achieve a satisfactory level of performance. On a set of 180,627 apps that were present at the app market during our crawl, our classifier predicts 2.7% of the apps as potential spam. Finally, we perform additional manual verification and show that human reviewers agree with 82% of our classifier predictions.</t>
+  </si>
+  <si>
+    <t>Detecting plagiarized mobile apps using API birthmarks</t>
+  </si>
+  <si>
+    <t>http://link.springer.com/article/10.1007/s10515-015-0182-6</t>
+  </si>
+  <si>
+    <t>http://www.cs.rutgers.edu/~vinodg/papers/jase2016/jase2016.pdf</t>
+  </si>
+  <si>
+    <t>Springer</t>
+  </si>
+  <si>
+    <t>10.1007/s10515-015-0182-6</t>
+  </si>
+  <si>
+    <t>Automated Software Engineering</t>
+  </si>
+  <si>
+    <t>Mobile apps,Plagiarism,API birthmarks</t>
+  </si>
+  <si>
+    <t>This paper addresses the problem of detecting plagiarized mobile apps. Plagiarism is the practice of building mobile apps by reusing code from other apps without the consent of the corresponding app developers. Recent studies on third-party app markets have suggested that plagiarized apps are an important vehicle for malware delivery on mobile phones. Malware authors repackage official versions of apps with malicious functionality, and distribute them for free via these third-party app markets. An effective technique to detect app plagiarism can therefore help identify malicious apps. Code plagiarism has long been a problem and a number of code similarity detectors have been developed over the years to detect plagiarism. In this paper we show that obfuscation techniques can be used to easily defeat similarity detectors that rely solely on statically scanning the code of an app. We propose a dynamic technique to detect plagiarized apps that works by observing the interaction of an app with the underlying mobile platform via its API invocations. We propose API birthmarks to characterize unique app behaviors, and develop a robust plagiarism detection tool using API birthmarks.</t>
+  </si>
+  <si>
+    <t>Towards a more dependable hybrid analysis of android malware using aspect-oriented programming</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0167404817302377</t>
+  </si>
+  <si>
+    <t>10.1016/j.cose.2017.11.006</t>
+  </si>
+  <si>
+    <t>Computers &amp; Security</t>
+  </si>
+  <si>
+    <t>hybrid analysis,bytecode weaving,instrumentation,dynamic execution,android,malware,dataflow</t>
+  </si>
+  <si>
+    <t>The growing threat to user privacy by Android applications (app) has tremendously increased the need for more reliable and accessible analysis techniques. This paper presents AspectDroida- an offline app-level hybrid analysis system designed to investigate Android applications for possible unwanted activities. It leverages static bytecode instrumentation to weave in analysis routines into an existing application to provide efficient data flow analysis, detection of resource abuse, and analytics of suspicious behaviors, which are then monitored dynamically at runtime. Unlike operating system or framework dependent approaches, AspectDroid does not require porting from one version of Android to another, nor does it depend on a particular Android runtime, making it a more adaptable and easier to use technique. We evaluate the strength of our data flow algorithm on 105 apps from the DroidBench corpus, with experimental results demonstrating that AspectDroid can detect tagged data with 94.68% accuracy. Furthermore, we compare and contrast the behavioral patterns in 100 malware samples from the Drebin dataset [1] and 100 apps downloaded from Google Play. Our results showed more traces of sensitive data exfiltration, abuse of resources, as well as suspicious use of programming concepts like reflection, native code, and dynamic classes in the malware set than the Google Play apps. In terms of runtime overhead, our experiments indicate AspectDroid can comprehensively log relevant security concerns with an approximate overhead of 1MB memory and a 5.9% average increase in CPU usage.</t>
+  </si>
+  <si>
+    <t>Dexteroid: Detecting malicious behaviors in Android apps using reverse-engineered life cycle models</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/article/pii/S0167404816300037</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1506.05217</t>
+  </si>
+  <si>
+    <t>10.1016/j.cose.2016.01.008</t>
+  </si>
+  <si>
+    <t>Static analysis,Mobile app security,Android,Malware,Privacy,Life cycle models</t>
+  </si>
+  <si>
+    <t>The amount of Android malware has increased greatly during the last few years. Static analysis is widely used in detecting such malware by analyzing the code without execution. The effectiveness of current tools relies on the app model as well as the malware detection algorithm which analyzes the app model. If the model and/or the algorithm is inadequate, then sophisticated attacks that are triggered by specific sequences of events will not be detected.This paper presents a static analysis framework called Dexteroid, which uses reverse-engineered life cycle models to accurately capture the behaviors of Android components. Dexteroid systematically derives event sequences from the models, and uses them to detect attacks launched by specific ordering of events. A prototype implementation of Dexteroid detects two types of attacks: (1) leakage of private information, and (2) sending SMS to premium-rate numbers. A series of experiments are conducted on 1526 Google Play apps, 1259 Genome Malware apps, and a suite of benchmark apps called DroidBench and the results are compared with a state-of-the-art static analysis tool called FlowDroid. The evaluation results show that the proposed framework is effective and efficient in terms of precision, recall, and execution time.</t>
+  </si>
+  <si>
+    <t>A scalable approach for detecting plagiarized mobile applications</t>
+  </si>
+  <si>
+    <t>http://link.springer.com/article/10.1007/s10115-015-0903-y</t>
+  </si>
+  <si>
+    <t>10.1007/s10115-015-0903-y</t>
+  </si>
+  <si>
+    <t>Knowledge and Information Systems</t>
+  </si>
+  <si>
+    <t>Plagiarism,Code similarity,Scalability,Clustering</t>
+  </si>
+  <si>
+    <t>Plagiarism cases are quite common in mobile applications ecosystems like the Android market. An application can be decompiled, modified and repackaged with a different author name. The modifications can affect the user’s privacy or even contain malicious logic. If the original application is supported by advertisements, they are usually replaced so the ad revenue will go to the repackager. Such events can cause the legitimate author damage both in reputation and financially so they need to be detected. A plagiarism detection system is proposed that can detect plagiarized applications based on the features extracted from code. Two similarity functions are given along with techniques for finding similar applications in a large collection. The main issue with this search is that it cannot be performed sequentially, by comparing a given item with every other item in the collection. The built solution will improve the search time by comparing the searched item only with those with a high probability of being similar. The greatest advantage of our approach is scalability. The system’s database can be built, updated and queried in reasonable time, even when large quantities of data are involved. Our experiments were conducted on a large collection of over one million samples and managed to identify a concerning number of plagiarism cases.</t>
+  </si>
+  <si>
+    <t>http://link.springer.com/article/10.1007/s10664-014-9352-6</t>
+  </si>
+  <si>
+    <t>https://orbilu.uni.lu/bitstream/10993/20068/1/emse-in_the_lab-vs-in_the_wild.pdf</t>
+  </si>
+  <si>
+    <t>10.1007/s10664-014-9352-6</t>
+  </si>
+  <si>
+    <t>Empirical Software Engineering</t>
+  </si>
+  <si>
+    <t>Machine learning,Ten-Fold,Malware,Android</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0167404817302444</t>
+  </si>
+  <si>
+    <t>The evolution of mobile malware poses a serious threat to smartphone security. Today, sophisticated attackers can adapt by maximally sabotaging machine-learning classifiers via polluting training data, rendering most recent machine learning-based malware detection tools (such as Drebin, DroidAPIMiner, and MaMaDroid) ineffective. In this paper, we explore the feasibility of constructing crafted malware samples; examine how machine-learning classifiers can be misled under three different threat models; then conclude that injecting carefully crafted data into training data can significantly reduce detection accuracy. To tackle the problem, we propose KuafuDet, a two-phase learning enhancing approach that learns mobile malware by adversarial detection. KuafuDet includes an offline training phase that selects and extracts features from the training set, and an online detection phase that utilizes the classifier trained by the first phase. To further address the adversarial environment, these two phases are intertwined through a self-adaptive learning scheme, wherein an automated camouflage detector is introduced to filter the suspicious false negatives and feed them back into the training phase. We finally show that KuafuDet can significantly reduce false negatives and boost the detection accuracy by at least 15%. Experiments on more than 250,000 mobile applications demonstrate that KuafuDet is scalable and can be highly effective as a standalone system.</t>
+  </si>
+  <si>
+    <t>SEALANT: a detection and visualization tool for inter-app security vulnerabilities in Android</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=3155672</t>
+  </si>
+  <si>
+    <t>https://pdfs.semanticscholar.org/a3b6/205099be8a98aef0f2b05328b509420817db.pdf</t>
+  </si>
+  <si>
+    <t>android,inter-app vulnerability,mobile security,visualization</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Android’s flexible communication model allows interactions among third-party apps, but it also leads to inter-app security vulnerabilities. Specifically, malicious apps can eavesdrop on interactions between other apps or exploit the functionality of those apps, which can expose a user’s sensitive information to attackers. While the state-of-the-art tools have focused on detecting inter-app vulnerabilities in Android, they neither accurately analyze realistically large numbers of apps nor effectively deliver the identified issues to users. This paper presents SEALANT, a novel tool that combines static analysis and visualization techniques that, together, enable accurate identification of inter-app vulnerabilities as well as their systematic visualization. SEALANT statically analyzes architectural information of a given set of apps, infers vulnerable communication channels where inter-app attacks can be launched, and visualizes the identified information in a compositional representation. SEALANT has been demonstrated to accurately identify inter-app vulnerabilities from hundreds of real-world Android apps and to effectively deliver the identified information to users. (Demo Video: https://youtu.be/E4lLQonOdUw) </t>
+  </si>
+  <si>
+    <t>Effective detection of android malware based on the usage of data flow APIs and machine learning</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/article/pii/S0950584916300386</t>
+  </si>
+  <si>
+    <t>10.1016/j.infsof.2016.03.004</t>
+  </si>
+  <si>
+    <t>Information and Software Technology</t>
+  </si>
+  <si>
+    <t>Android security,Malware detection,Privacy leakage</t>
+  </si>
+  <si>
+    <t>Context. Android has been ranked as the top smartphone platform nowadays. Studies show that Android malware have increased dramatically and that personal privacy theft has become a major form of attack in recent years. These critical security circumstances have generated a strong interest in developing systems that automatically detect malicious behaviour in Android applications (apps). However, most methods of detecting sensitive data leakage have certain shortcomings, including computational expensiveness and false positives.Objective. This study proposes an Android malware detecting system that provides highly accurate classification and efficient sensitive data transmission analysis.Method. The study adopts a machine learning approach that leverages the use of dataflow application program interfaces (APIs) as classification features to detect Android malware. We conduct a thorough analysis to extract dataflow-related API-level features and improve the k-nearest neighbour classification model. The dataflow-related API list is further optimized through machine learning, which enables us to improve considerably the efficiency of sensitive data transmission analysis, whereas analytical accuracy is approximated to that of the experiment using a full dataflow-related API list.Results. The proposed scheme is evaluated using 1160 benign and 1050 malicious samples. Results show that the system can achieve an accuracy rate of as high as 97.66% in detecting unknown Android malware. Our experiment of static dataflow analysis shows that more than 85% of sensitive data transmission paths can be determined using the refined API subset, whereas time of analysis decreases by nearly 40%.Conclusion. The usage of dataflow-related APIs is a valid feature for identifying Android malware. The proposed scheme provides an efficient approach to detecting Android malware and investigating privacy violations in malicious apps.</t>
+  </si>
+  <si>
+    <t>An hmm and structural entropy based detector for android malware: An empirical study</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/article/pii/S0167404816300499</t>
+  </si>
+  <si>
+    <t>http://www.gerardocanfora.net/preprints/ahmmandstructuralentropybaseddetectorforandroidmalwareanempiricalstudybygerardocanforafrancescomercaldocorradoaaronvisaggio/Computers_Security_Journal.pdf</t>
+  </si>
+  <si>
+    <t>10.1016/j.cose.2016.04.009</t>
+  </si>
+  <si>
+    <t>Malware,Mobile,HMM,Entropy,Android</t>
+  </si>
+  <si>
+    <t>Smartphones are becoming more and more popular and, as a consequence, malware writers are increasingly engaged to develop new threats and propagate them through official and third-party markets. In addition to the propagation vectors, malware is also evolving quickly the techniques adopted for infecting victims and hiding their malicious nature to antimalware scanning. From SMS Trojans to legitimate applications repacked with malicious payload, from AES encrypted root exploits to the dynamic loading of a payload retrieved from a remote server: malicious code is becoming more and more hard to detect.In this paper we experimentally evaluate two techniques for detecting Android malware: the first one is based on Hidden Markov Model, while the second one exploits structural entropy. These two techniques have been successfully applied to detect PCs viruses in previous works, and only one work in literature analyzes the application of HMM to the detection of Android malware. We demonstrate that these methods, which reveal effective for PCs virus, are also successful for detecting and classifying mobile malware.Our results are promising: we obtain a precision of 0.96 to discriminate a malware application, and a precision of 0.978 to identify the malware family.</t>
+  </si>
+  <si>
+    <t>Android inter-app communication threats and detection techniques</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0167404817301414</t>
+  </si>
+  <si>
+    <t>10.1016/j.cose.2017.07.002</t>
+  </si>
+  <si>
+    <t>App collusion,Privacy leakage,Inter component communication,Inter-app communication,Multi-app analysis</t>
+  </si>
+  <si>
+    <t>With the digital breakthrough, smart phones have become very essential component for many routine tasks like shopping, paying bills, transferring money, instant messaging, emails etc. Mobile devices are very attractive attack surface for cyber thieves as they hold personal details (accounts, locations, contacts, photos) and have potential capabilities for eavesdropping (with cameras/microphone, wireless connections). Android, being the most popular, is the target of malicious hackers who are trying to use Android app as a tool to break into and control device. Android malware authors use many anti-analysis techniques to hide from analysis tools. Academic researchers and commercial anti-malware companies are putting great effort to detect such malicious apps. They are making use of the combinations of static, dynamic and behavior-based analysis techniques.Despite of all the security mechanisms provided by Android, apps can carry out malicious actions through inter-app communication. One such inter-app communication threats is collusion. In collusion, malicious functionality is divided across multiple apps. Each participating app accomplishes its part and communicate information to another app through Inter Component Communication (ICC). ICC does not require any special permissions. Also there is no compulsion to inform user about the communication. Each participating app needs to request a minimal set of privileges, which may make it appear benign to current state-of-the-art techniques that analyze one app at a time.There are many surveys on app analysis techniques in Android; however they focus on single-app analysis. This survey highlights several inter-app communication threats, in particular collusion among multiple-apps. In this paper, we present Android vulnerabilities that may be exploited for carrying privilege escalation attacks, privacy leakage and collusion attacks. We cover the existing threat analysis, scenarios, and a detailed comparison of tools for intra- and inter-app analysis. To the best of our knowledge this is the first survey on inter-app communication threats, app collusion and state-of-the-art detection tools in Android.</t>
+  </si>
+  <si>
+    <t>Machine learning based mobile malware detection using highly imbalanced network traffic</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/article/pii/S0020025517307077</t>
+  </si>
+  <si>
+    <t>10.1016/j.ins.2017.04.044</t>
+  </si>
+  <si>
+    <t>Information Sciences</t>
+  </si>
+  <si>
+    <t>Network traffic,Malicious apps,Imbalanced data,Malware detection,Machine learning</t>
+  </si>
+  <si>
+    <t>In recent years, the number and variety of malicious mobile apps have increased drastically, especially on Android platform, which brings insurmountable challenges for malicious app detection. Researchers endeavor to discover the traces of malicious apps using network traffic analysis. In this study, we combine network traffic analysis with machine learning methods to identify malicious network behavior, and eventually to detect malicious apps. However, most network traffic generated by malicious apps is benign, while only a small portion of traffic is malicious, leading to an imbalanced data problem when the traffic model skews towards modeling the benign traffic. To address this problem, we introduce imbalanced classification methods, including the synthetic minority oversampling technique (SMOTE) + support vector machine (SVM), SVM cost-sensitive (SVMCS), and C4.5 cost-sensitive (C4.5CS) methods. However, when the imbalance rate reaches a certain threshold, the performance of common imbalanced classification algorithms degrades significantly. To avoid performance degradation, we propose to use the imbalanced data gravitation-based classification (IDGC) algorithm to classify imbalanced data. Moreover, we develop a simplex imbalanced data gravitation classification (S-IDGC) model to further reduce the time costs of IDGC without sacrificing the classification performance. In addition, we propose a machine learning based comparative benchmark prototype system, which provides users with substantial autonomy, such as multiple choices of the desired classifiers or traffic features. Using this prototype system, users can compare the detection performance of different classification algorithms on the same data set, as well as the performance of a specific classification algorithm on multiple data sets.</t>
+  </si>
+  <si>
+    <t>A hybrid approach of mobile malware detection in Android</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/article/pii/S074373151630140X</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Zheng_Yan4/publication/309372112_A_hybrid_approach_of_mobile_malware_detection_in_Android/links/59d0ad4f0f7e9b4fd7f9fca9/A-hybrid-approach-of-mobile-malware-detection-in-Android.pdf</t>
+  </si>
+  <si>
+    <t>10.1016/j.jpdc.2016.10.012</t>
+  </si>
+  <si>
+    <t>Journal of Parallel and Distributed Computing</t>
+  </si>
+  <si>
+    <t>Android,Malware detection,Pattern match,System call</t>
+  </si>
+  <si>
+    <t>â¢Hybrid mobile malware detection based on both malware and normal patterns.â¢Implementation and performance test based on an Android mobile platform.â¢Self-improvement based on automatic optimization of pattern sets.â¢Detection accuracy and generality showed through comparison.</t>
+  </si>
+  <si>
+    <t>A pragmatic android malware detection procedure</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0167404817301542</t>
+  </si>
+  <si>
+    <t>10.1016/j.cose.2017.07.013</t>
+  </si>
+  <si>
+    <t>Android,Malware detection,Static analysis,Machine learning,Classification,Ensemble learning,Feature selection</t>
+  </si>
+  <si>
+    <t>The academic security research community has studied the Android malware detection problem extensively. Machine learning methods proposed in previous work typically achieve high reported detection performance on fixed datasets. Some of them also report reasonably fast prediction times. However, most of them are not suitable for real-world deployment because requirements for malware detection go beyond these figures of merit.In this paper, we introduce several important requirements for deploying Android malware detection systems in the real world. One such requirement is that candidate approaches should be tested against a stream of continuously evolving data. Such streams of evolving data represent the continuous flow of unknown file objects received for categorization, and provide more reliable and realistic estimate of detection performance once deployed in a production environment.As a case study we designed and implemented an ensemble approach for automatic Android malware detection that meets the real-world requirements we identified. Atomic Naive Bayes classifiers used as inputs for the Support Vector Machine ensemble are based on different APK feature categories, providing fast speed and additional reliability against the attackers due to diversification. Our case study with several malware families showed that different families are detected by different atomic classifiers. To the best of our knowledge, our work contains the first publicly available results generated against evolving data streams of nearly 1 million samples with a model trained over a massive sample set of 120,000 samples.</t>
+  </si>
+  <si>
+    <t>Detecting information flow by mutating input data</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=3155598</t>
+  </si>
+  <si>
+    <t>https://www.comp.nus.edu.sg/~mboehme/paper/ASE17.pdf</t>
+  </si>
+  <si>
+    <t>http://doi.acm.org/10.1145/2714576.2714604</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Analyzing information flow is central in assessing the security of applications. However, static and dynamic analyses of information flow are easily challenged by non-available or obscure code. We present a lightweight mutation-based analysis that systematically mutates dynamic values returned by sensitive sources to assess whether the mutation changes the values passed to sensitive sinks. If so, we found a flow between source and sink. In contrast to existing techniques, mutation-based flow analysis does not attempt to identify the specific path of the flow and is thus resilient to obfuscation. In its evaluation, our MUTAFLOW prototype for Android programs showed that mutation-based flow analysis is a lightweight yet effective complement to existing tools. Compared to the popular FLOWDROID static analysis tool, MUTAFLOW requires less than 10% of source code lines but has similar accuracy; on 20 tested real-world apps, it is able to detect 75 flows that FLOWDROID misses. </t>
+  </si>
+  <si>
+    <t>Static detection of asymptotic resource side-channel vulnerabilities in web applications</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=3155595</t>
+  </si>
+  <si>
+    <t>http://www.cs.utexas.edu/users/lin/papers/ase17.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Web applications can leak confidential user information due to the presence of unintended side-channel vulnerabilities in code. One particularly subtle class of side-channel vulnerabilities arises due to resource usage imbalances along different execution paths of a program. Such side-channel vulnerabilities are especially severe if the resource usage imbalance is asymptotic. In particular, if the resource usage is constant along one branch but asymptotically dependent on user input along another branch, the attacker can arbitrarily inflate the program's input to amplify differences in resource usage, with the goal of inferring confidential user data. This paper formalizes the notion of asymptotic resource side-channels and presents a lightweight static analysis algorithm for automatically detecting such vulnerabilities in web applications. Based on these ideas, we have developed a tool called SCANNER for detecting resource-related side-channel vulnerabilities in PHP applications. SCANNER has found 18 zero-day security vulnerabilities in 10 different web applications and reports only 2 false positives. The vulnerabilities uncovered by SCANNER can be exploited using cross-site search attacks to extract various kinds of confidential information, such as a user's medications or purchase history. </t>
+  </si>
+  <si>
+    <t>A formal approach for detection of security flaws in the android permission system</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s00165-017-0445-z</t>
+  </si>
+  <si>
+    <t>10.1007/s00165-017-0445-z</t>
+  </si>
+  <si>
+    <t>Formal Aspects of Computing</t>
+  </si>
+  <si>
+    <t>Android,Permission protocol,Alloy,Verification</t>
+  </si>
+  <si>
+    <t>The ever increasing expansion of mobile applications into nearly every aspect of modern life, from banking to healthcare systems, is making their security more important than ever. Modern smartphone operating systems (OS) rely substantially on the permission-based security model to enforce restrictions on the operations that each application can perform. In this paper, we perform an analysis of the permission protocol implemented in Android, a popular OS for smartphones. We propose a formal model of the Android permission protocol in Alloy, and describe a fully automatic analysis that identifies potential flaws in the protocol. A study of real-world Android applications corroborates our finding that the flaws in the Android permission protocol can have severe security implications, in some cases allowing the attacker to bypass the permission checks entirely.</t>
+  </si>
+  <si>
+    <t>Relda2: an effective static analysis tool for resource leak detection in Android apps</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=2970278</t>
+  </si>
+  <si>
+    <t>http://lcs.ios.ac.cn/~yanjun/papers/ase16demo.pdf</t>
+  </si>
+  <si>
+    <t>10.1145/2970276.2970278</t>
+  </si>
+  <si>
+    <t>android apps,automated static analysis,byte-code,resource leak,static analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Resource leak is a common bug in Android applications (apps for short). In general, it is caused by missing release operations of the resources provided by Android (like Camera, Media Player and Sensors) that require programmers to explicitly release them. It might lead to several serious problems for the app and system, such as performance degradation and system crash. </t>
+  </si>
+  <si>
+    <t>All about activity injection: threats, semantics, and detection</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=3155597</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Android supports seamless user experience by maintaining activities from different apps in the same activity stack. While such close inter-app communication is essential in the Android framework, the powerful inter-app communication contains vulnerabilities that can inject malicious activities into a victim app's activity stack to hijack user interaction flows. In this paper, we demonstrate activity injection attacks with a simple malware, and formally specify the activity activation mechanism using operational semantics. Based on the operational semantics, we develop a static analysis tool, which analyzes Android apps to detect activity injection attacks. Our tool is fast enough to analyze real-world Android apps in 6~seconds on average, and our experiments found that 1,761 apps out of 129,756 real-world Android apps inject their activities into other apps' tasks. </t>
+  </si>
+  <si>
+    <t>AndroDialysis: analysis of android intent effectiveness in malware detection</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/article/pii/S0167404816301602</t>
+  </si>
+  <si>
+    <t>http://www0.cs.ucl.ac.uk/staff/G.SuarezdeTangil/papers/2017cosec-androdialysis.pdf</t>
+  </si>
+  <si>
+    <t>10.1016/j.cose.2016.11.007</t>
+  </si>
+  <si>
+    <t>Mobile malware,Android,Intent,Smartphone security,Static analysis</t>
+  </si>
+  <si>
+    <t>The wide popularity of Android systems has been accompanied by increase in the number of malware targeting these systems. This is largely due to the open nature of the Android framework that facilitates the incorporation of third-party applications running on top of any Android device. Inter-process communication is one of the most notable features of the Android framework as it allows the reuse of components across process boundaries. This mechanism is used as gateway to access different sensitive services in the Android framework. In the Android platform, this communication system is usually driven by a late runtime binding messaging object known as Intent. In this paper, we evaluate the effectiveness of Android Intents (explicit and implicit) as a distinguishing feature for identifying malicious applications. We show that Intents are semantically rich features that are able to encode the intentions of malware when compared to other well-studied features such as permissions. We also argue that this type of feature is not the ultimate solution. It should be used in conjunction with other known features. We conducted experiments using a dataset containing 7406 applications that comprise 1846 clean and 5560 infected applications. The results show detection rate of 91% using Android Intent against 83% using Android permission. Additionally, experiment on combination of both features results in detection rate of 95.5%.</t>
+  </si>
+  <si>
+    <t>A static technique for detecting input validation vulnerabilities in Android apps</t>
+  </si>
+  <si>
+    <t>http://link.springer.com/article/10.1007/s11432-015-5422-7</t>
+  </si>
+  <si>
+    <t>https://pdfs.semanticscholar.org/2950/8427197c9a05f71b4f4e3a4c7fe438a179bb.pdf</t>
+  </si>
+  <si>
+    <t>10.1007/s11432-015-5422-7</t>
+  </si>
+  <si>
+    <t>Science China Information Sciences</t>
+  </si>
+  <si>
+    <t>input validation,static analysis,program slicing,vulnerability detection,Android security,输入验证,静态分析,程序切片,漏洞挖掘,Android安全,052111</t>
+  </si>
+  <si>
+    <t>Input validation vulnerabilities are common in Android apps, especially in inter-component communications. Malicious attacks can exploit this kind of vulnerability to bypass Android security mechanism and compromise the integrity, confidentiality and availability of Android devices. However, so far there is not a sound approach at the source code level for app developers aiming to detect input validation vulnerabilities in Android apps. In this paper, we propose a novel approach for detecting input validation flaws in Android apps and we implement a prototype named EasyIVD, which provides practical static analysis of Java source code. EasyIVD leverages backward program slicing to extract transaction and constraint slices from Java source code. Then EasyIVD validates these slices with predefined security rules to detect vulnerabilities in a known pattern. To detect vulnerabilities in an unknown pattern, EasyIVD extracts implicit security specifications as frequent patterns from the duplicated slices and verifies them. Then EasyIVD semi-automatically confirms the suspicious rule violations and reports the confirmed ones as vulnerabilities. We evaluate EasyIVD on four versions of original Android apps spanning from version 2.2 to 5.0. It detects 58 vulnerabilities including confused deputy attacks and denial of service attacks. Our results prove that EasyIVD can provide a practical defensive solution for app developers.</t>
+  </si>
+  <si>
+    <t>Andro-dumpsys: anti-malware system based on the similarity of malware creator and malware centric information</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/article/pii/S016740481600002X</t>
+  </si>
+  <si>
+    <t>https://pdfs.semanticscholar.org/60fe/36c8655e807d451540ac80e0f274852892e3.pdf</t>
+  </si>
+  <si>
+    <t>10.1016/j.cose.2015.12.005</t>
+  </si>
+  <si>
+    <t>Volatile memory acquisition,Similarity,Malware creator centric information,Mobile malware,Android</t>
+  </si>
+  <si>
+    <t>â¢Our system (Andro-Dumpsys) leverages volatile memory acquisition.â¢Andro-Dumpsys leverages malware creator information and malware information.â¢Andro-Dumpsys is anti-malware system based on similarity matching of footprints.â¢Andro-Dumpsys is capable of detecting zero-day threats.</t>
+  </si>
+  <si>
+    <t>PIndroid: A novel Android malware detection system using ensemble learning methods</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/article/pii/S0167404817300640</t>
+  </si>
+  <si>
+    <t>10.1016/j.cose.2017.03.011</t>
+  </si>
+  <si>
+    <t>Malware classification,Permissions,Intents,Ensemble methods,Colluding applications</t>
+  </si>
+  <si>
+    <t>The extensive use of smartphones has been a major driving force behind a drastic increase of malware attacks. Covert techniques used by the malware make them hard to detect with signature based methods. In this paper, we present PIndroid â a novel Permissions and Intents based framework for identifying Android malware apps. To the best of our knowledge, PIndroid is the first solution that uses a combination of permissions and intents supplemented with Ensemble methods for accurate malware detection. The proposed approach, when applied to 1,745 real world applications, provides 99.8% accuracy (which is best reported to date). Empirical results suggest that the proposed framework is effective in detection of malware apps.</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/abstract/document/7881791/</t>
+  </si>
+  <si>
+    <t>10.1109/ISTEL.2016.7881791</t>
+  </si>
+  <si>
+    <t>Malware,Smart phones,Feature extraction,Receivers,Telecommunications,Prediction algorithms,Training</t>
+  </si>
+  <si>
+    <t>In recent years, Android has become most popular and largest installed operating systems in smartphones. The openness capability of android applications let the users to easily download many applications from markets. Accordingly, a large number of malicious applications may be received carelessly. Developers publish their applications in a market place without regard to special considerations. On the other hand, low knowledge of the users in analyzing the risk of these applications, create further exploits on information and privacy. These malicious applications can perform unauthorized activities such as gaining access to user's sensitive information, camera, SMS, phone calls, etc.</t>
+  </si>
+  <si>
+    <t>DroidNative: Automating and optimizing detection of Android native code malware variants</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/article/pii/S016740481630164X</t>
+  </si>
+  <si>
+    <t>http://web.uvic.ca/~salam/papers/DroidNative-COSE-2016-personal-copy.pdf</t>
+  </si>
+  <si>
+    <t>10.1016/j.cose.2016.11.011</t>
+  </si>
+  <si>
+    <t>Android native code,Malware analysis,Malware variant detection,Control flow analysis,Data mining</t>
+  </si>
+  <si>
+    <t>According to the Symantec and F-Secure threat reports, mobile malware development in 2013 and 2014 has continued to focus almost exclusively (~99%) on the Android platform. Malware writers are applying stealthy mutations (obfuscations) to create malware variants, thwarting detection by signature-based detectors. In addition, the plethora of more sophisticated detectors making use of static analysis techniques to detect such variants operate only at the bytecode level, meaning that malware embedded in native code goes undetected. A recent study shows that 86% of the most popular Android applications contain native code, making native code malware a plausible threat vector. This paper proposes DroidNative, an Android malware detector that uses specific control flow patterns to reduce the effect of obfuscations and provides automation. As far as we know, DroidNative is the first system that builds cross-platform (x86 and ARM) semantic-based signatures at the Android native code level, allowing the system to detect malware embedded in either bytecode or native code. When tested with a dataset of 5490 samples, DroidNative achieves a detection rate (DR) of 93.57% and a false positive rate of 2.7%. When tested with traditional malware variants, it achieves a DR of 99.48%, compared to the DRs of academic and commercial tools that range from 8.33% to 93.22%.</t>
+  </si>
+  <si>
+    <t>To address the issue of malware detection through large sets of applications, researchers have recently started to investigate the capabilities of machine-learning techniques for proposing effective approaches. So far, several promising results were recorded in the literature, many approaches being assessed with what we call in the lab validation scenarios. This paper revisits the purpose of malware detection to discuss whether such in the lab validation scenarios provide reliable indications on the performance of malware detectors in real-world settings, aka in the wild. To this end, we have devised several Machine Learning classifiers that rely on a set of features built from applications’ CFGs. We use a sizeable dataset of over 50 000 Android applications collected from sources where state-of-the art approaches have selected their data. We show that, in the lab, our approach outperforms existing machine learning-based approaches. However, this high performance does not translate in high performance in the wild. The performance gap we observed—F-measures dropping from over 0.9 in the lab to below 0.1 in the wild—raises one important question: How do state-of-the-art approaches perform in the wild?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empirical assessment of machine learning-based malware detectors for Android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Automated poisoning attacks and defenses in malware detection systems: an adversarial machine learning approach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proposed new features to improve Android malware detection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android 安全研究进展</t>
+  </si>
+  <si>
+    <t>http://www.jos.org.cn/html/2016/1/4914.htm</t>
+  </si>
+  <si>
+    <t>jos.org.cn</t>
+  </si>
+  <si>
+    <t>信息流控制研究进展</t>
+  </si>
+  <si>
+    <t>http://www.jos.org.cn/ch/reader/create_pdf.aspx?file_no=5131&amp;journal_id=jos</t>
+  </si>
+  <si>
+    <t>移动平台用户隐私保护技术综述</t>
+  </si>
+  <si>
+    <t>http://www.inforsec.org/wp/wp-content/uploads/2015/12/%E7%A7%BB%E5%8A%A8%E5%B9%B3%E5%8F%B0%E7%94%A8%E6%88%B7%E9%9A%90%E7%A7%81%E4%BF%9D%E6%8A%A4%E6%8A%80%E6%9C%AF%E7%BB%BC%E8%BF%B0.pdf</t>
+  </si>
+  <si>
+    <t>inforsec.org</t>
+  </si>
+  <si>
+    <t>使用敏感路径识别方法分析安卓应用安全性</t>
+  </si>
+  <si>
+    <t>http://www.jos.org.cn/ch/reader/download_pdf.aspx?file_no=5177&amp;year_id=2017&amp;quarter_id=9&amp;falg=1</t>
+  </si>
+  <si>
+    <t>大规模移动应用第三方库自动检测和分类方法</t>
+  </si>
+  <si>
+    <t>http://www.jos.org.cn/ch/reader/download_pdf.aspx?file_no=5221&amp;year_id=2017&amp;quarter_id=6&amp;falg=1</t>
+  </si>
+  <si>
+    <t>An Efficient Scheme of Detecting Repackaged Android Applications</t>
+  </si>
+  <si>
+    <t>http://wwwen.zte.com.cn/endata/magazine/ztecommunications/2016/4/articles/201609/P020160905567753757032.pdf</t>
+  </si>
+  <si>
+    <t>wwwen.zte.com.cn</t>
+  </si>
+  <si>
+    <t>NotFound</t>
+  </si>
+  <si>
+    <t>面向移动系统安全的应用分析技术综述</t>
+  </si>
+  <si>
+    <t>http://www.c-s-a.org.cn/ch/reader/view_abstract.aspx?file_no=20160903</t>
+  </si>
+  <si>
+    <t>http://www.c-s-a.org.cn/ch/reader/create_pdf.aspx?file_no=20160903</t>
+  </si>
+  <si>
+    <t>csa.org.cn</t>
+  </si>
+  <si>
+    <t>污点分析技术的原理和实践应用</t>
+  </si>
+  <si>
+    <t>http://www.jos.org.cn/ch/reader/create_pdf.aspx?file_no=5190&amp;journal_id=jos</t>
+  </si>
+  <si>
+    <t>面向移动应用软件信息泄露的模型检测研究</t>
+  </si>
+  <si>
+    <t>http://cjc.ict.ac.cn/online/onlinepaper/gck-20161030105516.pdf</t>
+  </si>
+  <si>
+    <t>cjc.ict.ac.cn</t>
+  </si>
+  <si>
+    <t>基于弹幕情感分析的视频片段推荐模型</t>
+  </si>
+  <si>
+    <t>http://www.joca.cn/EN/article/downloadArticleFile.do?attachType=PDF&amp;id=20424</t>
+  </si>
+  <si>
+    <t>joca.cn</t>
+  </si>
+  <si>
+    <t>基于静态分析的 Android GUI 遍历方法</t>
+  </si>
+  <si>
+    <t>http://www.joca.cn/CN/article/downloadArticleFile.do?attachType=PDF&amp;id=19513</t>
+  </si>
+  <si>
+    <t>针对 Android 资源泄漏的基准测试集的构造与评测</t>
+  </si>
+  <si>
+    <t>http://www.joca.cn/CN/article/downloadArticleFile.do?attachType=PDF&amp;id=19968</t>
+  </si>
+  <si>
+    <t>Android 应用软件漏洞静态挖掘技术 Android application vulnerabilities static mining technology</t>
+  </si>
+  <si>
+    <t>http://hzlg.chinajournal.net.cn/EditorEN/WebPublication/paperDigest.aspx?paperID=HZLG2016S1005&amp;isCnki=ck01</t>
+  </si>
+  <si>
+    <t>hzlg.chinajournal.net.cn</t>
+  </si>
+  <si>
+    <t>基于行为的 Android 恶意软件判定方法及其有效性</t>
+  </si>
+  <si>
+    <t>http://www.joca.cn/CN/article/downloadArticleFile.do?attachType=PDF&amp;id=19154</t>
+  </si>
+  <si>
+    <t>Design and Implementation of Privacy Impact Assessment for Android Mobile Devices</t>
+  </si>
+  <si>
+    <t>http://wwwen.zte.com.cn/endata/magazine/ztecommunications/2016/3/articles/201607/P020160715570665214101.pdf</t>
+  </si>
+  <si>
+    <t>基于执行踪迹离线索引的污点分析方法研究</t>
+  </si>
+  <si>
+    <t>http://www.jos.org.cn/ch/reader/download_pdf.aspx?file_no=5179&amp;year_id=2017&amp;quarter_id=9&amp;falg=1</t>
+  </si>
+  <si>
+    <t>基于 ARM 虚拟化扩展的安全防护技术</t>
+  </si>
+  <si>
+    <t>http://www.jos.org.cn/ch/reader/download_pdf.aspx?file_no=5185&amp;year_id=2017&amp;quarter_id=9&amp;falg=1</t>
+  </si>
+  <si>
+    <t>X-Decaf: Android 平台社交类应用的缓存文件泄露检测</t>
+  </si>
+  <si>
+    <t>http://jeit.ie.ac.cn/CN/article/downloadArticleFile.do?attachType=PDF&amp;id=18177</t>
+  </si>
+  <si>
+    <t>jeit.ie.ac.cn</t>
+  </si>
+  <si>
+    <t>Android 平台恶意应用程序静态检测方法</t>
+  </si>
+  <si>
+    <t>http://www.c-s-a.org.cn/ch/reader/view_abstract.aspx?file_no=20160401</t>
+  </si>
+  <si>
+    <t>http://www.c-s-a.org.cn/ch/reader/create_pdf.aspx?file_no=20160401</t>
+  </si>
+  <si>
+    <t>面向手机短信的隐私保护方案</t>
+  </si>
+  <si>
+    <t>http://www.c-s-a.org.cn/ch/reader/view_abstract.aspx?file_no=20160420</t>
+  </si>
+  <si>
+    <t>http://www.c-s-a.org.cn/ch/reader/create_pdf.aspx?file_no=20160420</t>
+  </si>
+  <si>
+    <t>基于关联分析的 Android 权限滥用攻击检测系统</t>
+  </si>
+  <si>
+    <t>http://www.c-s-a.org.cn/ch/reader/view_abstract.aspx?file_no=20160406</t>
+  </si>
+  <si>
+    <t>http://www.c-s-a.org.cn/ch/reader/create_pdf.aspx?file_no=20160406</t>
+  </si>
+  <si>
+    <t>Mobile malware detection approach using ensemble classification</t>
+  </si>
+  <si>
+    <t>http://zrxuebao.njust.edu.cn/en/oa/darticle.aspx?type=view&amp;id=201601006</t>
+  </si>
+  <si>
+    <t>zrxuebao.njust.edu.cn</t>
+  </si>
+  <si>
+    <t>LibSift: Automated Detection of Third-Party Libraries in Android Applications</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/abstract/document/7890569/</t>
+  </si>
+  <si>
+    <t>10.1109/APSEC.2016.017</t>
+  </si>
+  <si>
+    <t>Asia-Pacific Software Engineerin g Conference</t>
+  </si>
+  <si>
+    <t>Androids,Humanoid robots,Libraries,Malware,Security,Java,Privacy</t>
+  </si>
+  <si>
+    <t>Android applications typically contain multiple third-party libraries and recent studies have shown that the presence of third-party libraries may introduce privacy risks and security threats. Furthermore, researchers have reported the importance of considering the third-party libraries for their program analysis tasks. A reason being that the presence of third-party libraries may dilute the features and affect the accuracy of their results. Existing literature typically employs a whitelist to exclude the third-party libraries from their analysis in order to achieve accurate results. However, these whitelists are generally incomplete and weak against the renaming obfuscation technique that is commonly employed in Android applications. In this paper, we propose LibSift, a tool to automatically detect third-party libraries in Android applications. LibSift detects third-party libraries based on package dependencies that are resilient to most common obfuscations. The evaluation results not only indicate that LibSift can detect third-party libraries accurately and effectively, but also show that LibSift can detect even the less popular libraries that are not detected by two of the state-of-the-art approaches.</t>
+  </si>
+  <si>
+    <t>An Improved Android Collusion Attack Detection Method Based on Program Slicing</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/chapter/10.1007/978-3-319-68690-5_19</t>
+  </si>
+  <si>
+    <t>10.1007/978-3-319-68690-5_19</t>
+  </si>
+  <si>
+    <t>International Conference on Formal Engineering Methods</t>
+  </si>
+  <si>
+    <t>Android Collusion Attack,Privacy leakage,Taint analysis,Program slicing</t>
+  </si>
+  <si>
+    <t>Android applications can leak sensitive information through collusion, which gives the smartphone users a great security risk. We propose an Android collusion attack detection method based on control flow and data flow analysis. This method gives analysis of data propagation between different applications firstly. And then, a multi-apps program slice model based on both data and control flow are given. Last, the privacy data leakage paths of multi-apps are computed by reaching-definition analysis. Meanwhile, the criterions of mobile device information leakage edge are redefined according to the correlation of mobile devices. Based on the above principle, we implemented an Android collusion attack sensitive information leakage detection tools called CollusionDetector. Case study is carried out for typical collusion attack scenarios and it can obtain better results than existing tools and methods. Experiments show that the analysis of control flow can more accurately find the path of privacy propagation, and more effectively to identify collusion attacks.</t>
+  </si>
+  <si>
+    <t>Contextual Weisfeiler-Lehman graph kernel for malware detection</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/abstract/document/7727817/</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1606.06369</t>
+  </si>
+  <si>
+    <t>10.1109/IJCNN.2016.7727817</t>
+  </si>
+  <si>
+    <t>International Joint Conference on Neural Networks</t>
+  </si>
+  <si>
+    <t>Kernel,Malware,Context,Meteorology,Androids,Humanoid robots,Feature extraction</t>
+  </si>
+  <si>
+    <t>In this paper, we propose a novel graph kernel specifically to address a challenging problem in the field of cyber-security, namely, malware detection. Previous research has revealed the following: (1) Graph representations of programs are ideally suited for malware detection as they are robust against several attacks, (2) Besides capturing topological neighbourhoods (i.e., structural information) from these graphs it is important to capture the context under which the neighbourhoods are reachable to accurately detect malicious neighbourhoods. We observe that state-of-the-art graph kernels, such as Weisfeiler-Lehman kernel (WLK) capture the structural information well but fail to capture contextual information. To address this, we develop the Contextual Weisfeiler-Lehman kernel (CWLK) which is capable of capturing both these types of information. We show that for the malware detection problem, CWLK is more expressive and hence more accurate than WLK while maintaining comparable efficiency. Through our largescale experiments with more than 50,000 real-world Android apps, we demonstrate that CWLK outperforms two state-of-the-art graph kernels (including WLK) and three malware detection techniques by more than 5.27% and 4.87% F-measure, respectively, while maintaining high efficiency. This high accuracy and efficiency make CWLK suitable for large-scale real-world malware detection.</t>
+  </si>
+  <si>
+    <t>Adaptive and scalable android malware detection through online learning</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/abstract/document/7727508/</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1606.07150</t>
+  </si>
+  <si>
+    <t>10.1109/IJCNN.2016.7727508</t>
+  </si>
+  <si>
+    <t>Kernel,Androids,Humanoid robots</t>
+  </si>
+  <si>
+    <t>It is well-known that malware constantly evolves so as to evade detection and this causes the entire malware population to be non-stationary. Contrary to this fact, prior works on machine learning based Android malware detection have assumed that the distribution of the observed malware characteristics (i.e., features) do not change over time. In this work, we address the problem of malware population drift and propose a novel online machine learning based framework, named DroidOL to handle it and effectively detect malware. In order to perform accurate detection, security-sensitive behavior are captured from apps in form of inter-procedural control-flow sub-graph features using a state-of-the-art graph kernel. In order to perform scalable detection and to adapt to the drift and evolution in malware population, an online passive-aggressive classifier is used. In a large-scale comparative analysis with more than 87,000 apps, DroidOL achieves 84.29% accuracy outperforming two state-of-the-art malware techniques by more than 20% in their typical batch learning setting and more than 3% when they are continuously re-trained. Our experimental findings strongly indicate that online learning based approaches are highly suitable for real-world malware detection.</t>
+  </si>
+  <si>
+    <t>Anomalous Android Application Detection with Latent Semantic Indexing</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/abstract/document/7552294/</t>
+  </si>
+  <si>
+    <t>10.1109/COMPSAC.2016.3</t>
+  </si>
+  <si>
+    <t>International Computer Software and Applications Conference</t>
+  </si>
+  <si>
+    <t>Conferences,Security,Malware,Semantics,Indexing,Information retrieval</t>
+  </si>
+  <si>
+    <t>Android applications are widely used by millions of users to perform many different activities. However, many applications have been reported to do anomalous activities not matching with their expected behaviors such as reading of contact information, sending SMS message to premium numbers, and other consequences. The existing relevant approaches that identify these applications (malware detection technique) suffer from performance issues with high false positive and negative rate. This paper provides a concept of applying Latent Semantic Indexing (LSI) to find if a suspected application is relevant to malware application.</t>
+  </si>
+  <si>
+    <t>More semantics more robust: Improving android malware classifiers</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=2939931</t>
+  </si>
+  <si>
+    <t>http://groups.inf.ed.ac.uk/security/appguarden/papers/WiSec16.pdf</t>
+  </si>
+  <si>
+    <t>10.1145/2939918.2939931</t>
+  </si>
+  <si>
+    <t>ACM Conference on Security and Privacy in Wireless and Mobile Networks</t>
+  </si>
+  <si>
+    <t>android system,automated static analysis,learning paradigms,machine learning,malware detection,mobile and wireless security,mobile security,software verification</t>
+  </si>
+  <si>
+    <t>Automatic malware classifiers often perform badly on the detection of new malware, i.e., their robustness is poor. We study the machine-learning-based mobile malware classifiers and reveal one reason: the input features used by these classifiers can't capture general behavioural patterns of malware instances. We extract the best-performing syntax-based features like permissions and API calls, and some semantics-based features like happen-befores and unwanted behaviours, and train classifiers using popular supervised and semi-supervised learning methods. By comparing their classification performance on industrial datasets collected across several years, we demonstrate that using semantics-based features can dramatically improve robustness of malware classifiers.</t>
+  </si>
+  <si>
+    <t>Behavioral malware detection approaches for Android</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/abstract/document/7511573/</t>
+  </si>
+  <si>
+    <t>10.1109/ICC.2016.7511573</t>
+  </si>
+  <si>
+    <t>IEEE International Conference on Communications</t>
+  </si>
+  <si>
+    <t>Malware,Androids,Humanoid robots,Ports (Computers),Training,Uniform resource locators,Mobile communication</t>
+  </si>
+  <si>
+    <t>Android, the fastest growing mobile operating system released in November 2007, boasts of a staggering 1.4 billion active users. Android users are susceptible to malicious applications that can hack into their personal data due to the lack of careful monitoring of their in-device security. There have been numerous works on devising malware detection methods. However, none of earlier works are conclusive enough for direct application and lack experimental validation. In this paper, we have investigated the natures and identities of malicious applications and devised two novel detection approaches for detection: network-based detection and system call based detection approaches. To evaluate our proposed approaches, we performed experiments on a subset of 1260 malwares, acquired from Android Malware Genome Project, a malware database created by Y. Zhou et al. [1] and 227 non-malware (benign) applications. Results show that our system call based approach is able to detect malwares with an accuracy of 87% which is quite significant in general malware detection context. Our proposed detection approaches along with the experimental results will provide security professionals with more precise and quantitative approaches in their investigations of mobile malwares on Android systems.</t>
+  </si>
+  <si>
+    <t>R-PackDroid: API package-based characterization and detection of mobile ransomware</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=3019793</t>
+  </si>
+  <si>
+    <t>https://pralab.diee.unica.it/sites/default/files/maiorca_sac_17_0.pdf</t>
+  </si>
+  <si>
+    <t>10.1145/3019612.3019793</t>
+  </si>
+  <si>
+    <t>Selected Areas in Cryptography</t>
+  </si>
+  <si>
+    <t>android,machine learning,malware,malware and its mitigation,mobile and wireless security,ransomware,software security engineering</t>
+  </si>
+  <si>
+    <t>Ransomware has become a serious and concrete threat for mobile platforms and in particular for Android. In this paper, we propose R-PackDroid, a machine learning system for the detection of Android ransomware. Differently to previous works, we leverage information extracted from system API packages, which allow to characterize applications without specific knowledge of user-defined content such as the application language or strings. Results attained on very recent data show that it is possible to detect Android ransomware and to distinguish it from generic malware with very high accuracy. Moreover, we used R-PackDroid to flag applications that were detected as ransomware with very low confidence by the VirusTotal service. In this way, we were able to correctly distinguish true ransomware from false positives, thus providing valuable help for the analysis of these malicious applications.</t>
+  </si>
+  <si>
+    <t>Deep neural architectures for large scale android malware analysis</t>
+  </si>
+  <si>
+    <t>http://link.springer.com/article/10.1007/s10586-017-0944-y</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Tamleek_Tanveer/publication/317768631_Deep_neural_architectures_for_large_scale_android_malware_analysis/links/5a0526a1a6fdcceda0307b09/Deep-neural-architectures-for-large-scale-android-malware-analysis.pdf</t>
+  </si>
+  <si>
+    <t>10.1007/s10586-017-0944-y</t>
+  </si>
+  <si>
+    <t>Cluster Computing</t>
+  </si>
+  <si>
+    <t>Android,Malware analysis,Machine learning,Deep neural networks,Bayesian machine learning</t>
+  </si>
+  <si>
+    <t>Android is arguably the most widely used mobile operating system in the world. Due to its widespead use and huge user base, it has attracted a lot of attention from the unsavory crowd of malware writers. Traditionally, techniques to counter such malicious software involved manually analyzing code and figuring out whether it was malicious or benign. However, due to the immense pace at which newer malware families are surfacing, such an approach is no longer feasible. Machine learning offers a way to tackle this issue of speed by automating the classification task. While several efforts have been made to use traditional machine learning techniques to Android malware detection, no reasonable effort has been made to utilize the newer, deep learning models in this domain. In this paper, we apply several deep learning models including fully connected, convolutional and recurrent neural networks as well as autoencoders and deep belief networks to detect Android malware from a large scale dataset of more than 55 GBs of Android malware. Further, we apply Bayesian machine learning to this problem domain to see how it fares with the deep learning based models while also providing insights into the dataset. We show that we are able to achieve better results using these models as compared to the state-of-the-art approaches. Our best model gets an F1 score of 0.986 with an AUC of 0.983 as compared to the existing best F1 score of 0.875 and AUC of 0.953.</t>
+  </si>
+  <si>
+    <t>DeepFlow: Deep learning-based malware detection by mining Android application for abnormal usage of sensitive data</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/abstract/document/8024568/</t>
+  </si>
+  <si>
+    <t>10.1109/ISCC.2017.8024568</t>
+  </si>
+  <si>
+    <t>IEEE Symposium on Computers and Communications</t>
+  </si>
+  <si>
+    <t>Malware,Androids,Humanoid robots,Machine learning,Feature extraction,Data mining,Computational modeling</t>
+  </si>
+  <si>
+    <t>The open nature of Android allows application developers to take full advantage of the system. While the flexibility is brought to developers and users, it may raise significant issues related to malicious applications. Traditional malware detection approaches based on signatures or abnormal behaviors are invalid when dealing with novel malware. To solve the problem, machine learning algorithms are used to learn the distinctions between malware and benign apps automatically. Deep learning, as a new area of machine learning, is developing rapidly as its better characterization of samples. We thus propose DeepFlow, a novel deep learning-based approach for identifying malware directly from the data flows in the Android application. We test DeepFlow on thousands of benignware and malware. The results show that DeepFlow can achieve a high detection F1 score of 95.05%, outperforming traditional machine learning-based approaches, which reveals the advantage of deep learning technique in malware detection.</t>
+  </si>
+  <si>
+    <t>Euphony: harmonious unification of cacophonous anti-virus vendor labels for Android malware</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=3104239</t>
+  </si>
+  <si>
+    <t>http://orbilu.uni.lu/bitstream/10993/31441/1/PID4727047.pdf</t>
+  </si>
+  <si>
+    <t>10.1109/MSR.2017.57</t>
+  </si>
+  <si>
+    <t>Working Conference on Mining Software Repositories</t>
+  </si>
+  <si>
+    <t>android,datasets,ground-truth,labeling,malware</t>
+  </si>
+  <si>
+    <t>Android malware is now pervasive and evolving rapidly. Thousands of malware samples are discovered every day with new models of attacks. The growth of these threats has come hand in hand with the proliferation of collective repositories sharing the latest specimens. Having access to a large number of samples opens new research directions aiming at efficiently vetting apps. However, automatically inferring a reference dataset from those repositories is not straightforward and can inadvertently lead to unforeseen misconceptions. On the one hand, samples are often mis-labeled as different parties use distinct naming schemes for the same sample. On the other hand, samples are frequently mis-classified due to conceptual errors made during labeling processes. In this paper, we mine Anti-Virus labels and analyze the associations between all labels given by different vendors to systematically unify common samples into family groups. The key novelty of our approach, named Euphony [20], is that no a-priori knowledge on malware families is needed. We evaluate Euphony using reference datasets and more than 400 thousands additional samples outside of these datasets. Results show that Euphony can accurately label malware with a fine-grained clustering of families, while providing competitive performance against the state-of-the-art.</t>
+  </si>
+  <si>
+    <t>SAM: A secure anti-malware framework for the smartphone operating systems</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/abstract/document/7564870/</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Md_Shahrear_Iqbal/publication/309480371_SAM_A_secure_anti-malware_framework_for_the_smartphone_operating_systems/links/5812964908ae1f5510c2aff9/SAM-A-secure-anti-malware-framework-for-the-smartphone-operating-systems.pdf</t>
+  </si>
+  <si>
+    <t>10.1109/WCNC.2016.7564870</t>
+  </si>
+  <si>
+    <t>IEEE Wireless Communications &amp; Networking Conference</t>
+  </si>
+  <si>
+    <t>Malware,Operating systems,Security,Monitoring,Smart phones,Smart cities</t>
+  </si>
+  <si>
+    <t>Smartphones have become an integral part of our daily life. Businesses now offer services through smartphones. Users also store sensitive personal information on their smartphones and perform financial transactions. Consequently, security attacks on smartphone platforms have also increased significantly. Traditional desktop anti-virus software are not very effective in smartphones due to the restrictive security model and they are heavily dependent on their definition updates. In this paper, we propose a Secure Anti-Malware framework (SAM) for smartphone operating systems to prevent malicious activities. The core idea of the framework resembles a smart city. The framework acts as the government of the city and treats the applications as citizens. It has components to enforce laws (prevent) and perform policing (monitor and control). It also provides APIs to aid anti-virus software and third-party applications to leverage the functionalities of the framework. Our goal is to design an operating system framework that hinders malicious activities and thus protects user resources.</t>
+  </si>
+  <si>
+    <t>Detecting and Classifying Android PUAs by similarity of DNS queries</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/abstract/document/8029995/</t>
+  </si>
+  <si>
+    <t>http://www.ieeeconfpublishing.org/cpir/UploadedFiles/PID4799455.pdf</t>
+  </si>
+  <si>
+    <t>10.1109/COMPSAC.2017.103</t>
+  </si>
+  <si>
+    <t>Malware,Androids,Humanoid robots,Testing,Tools,Training</t>
+  </si>
+  <si>
+    <t>This work develops a method of detecting and classifying &amp;#x201C;potentially unwanted applications&amp;#x201D; (PUAs) such as adware or remote monitoring tools. Our approach leverages DNS queries made by apps. Using a large sample of Android apps from third-party marketplaces, we first reveal that DNS queries can provide useful information for the detection and classification of PUAs. Next, we show that existing DNS blacklists are ineffective to perform these tasks. Finally, we demonstrate that our methodology performed with high accuracy.</t>
+  </si>
+  <si>
+    <t>Behavior grouping of Android malware family</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/abstract/document/7511424/</t>
+  </si>
+  <si>
+    <t>http://www.iis.sinica.edu.tw/papers/mcc/19555-F.pdf</t>
+  </si>
+  <si>
+    <t>10.1109/ICC.2016.7511424</t>
+  </si>
+  <si>
+    <t>Malware,Androids,Humanoid robots,Phylogeny,Java,Security,Electronic mail</t>
+  </si>
+  <si>
+    <t>Malicious apps may install unwanted program or gather sensitive information from mobile devices. We notice Android apps fork several threads to accomplish a complex task intrinsically, and so does Android malware, that makes security experts difficult to analyze them without knowing their structure. In this paper, we propose an analysis scheme to group and analyze Android malware based on their dynamic behaviors, and to identify the behaviors of a malware family. In addition, we apply the techniques of phylogenetic tree, significant principal components and dot matrix on different malware families to demonstrate their behavioral correlations. The proposed methods can automatically discover similar behaviors of different malware groups, extract the characteristics of each malware group, and provide visualized information based on runtime behaviors. We anticipate the grouping result and the structure of malware family are important and essential for further malware behavior analysis researches.</t>
+  </si>
+  <si>
+    <t>Automatic privacy leakage detection for massive android apps via a novel hybrid approach</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/abstract/document/7996335/</t>
+  </si>
+  <si>
+    <t>10.1109/ICC.2017.7996335</t>
+  </si>
+  <si>
+    <t>Privacy,Analytical models,Androids,Humanoid robots,Computational modeling,Feature extraction,Security</t>
+  </si>
+  <si>
+    <t>Android apps frequently leak private data off the device with or without intentions. Researchers have proposed a large number of methods, for example, static and dynamic analysis methods, to pick out the apps which tend to leak private data. However, they are only able to identify part of private data leakage vulnerabilities, due to the dynamic features in codes or code coverage problem. This paper presents a novel hybrid approach that can find out more private data leakages than the existing static or dynamic methods. The approach, realized in a tool, called HybriDroid, which employs both static and dynamic analysis methods to extract the models of each apps, and then refines the behavior model to a more adequate one according to the dynamic analysis result. As a consequence, HybriDroid inherits the advantages of both static and dynamic analysis methods, which not only achieves a high code coverage, but also can deal with the dynamic features in codes. The evaluation results show that HybriDroid is effective in detecting privacy leakages for both inter- and intra-app communication. Comparing with the existing methods, it can achieve considerable improvements in data leakage detection performance with a 97.8% precision and 90% recall on the selected apps from DroidBench 3.0 test suite.</t>
+  </si>
+  <si>
+    <t>NIVAnalyzer: A Tool for Automatically Detecting and Verifying Next-Intent Vulnerabilities in Android Apps</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/abstract/document/7928006/</t>
+  </si>
+  <si>
+    <t>10.1109/ICST.2017.56</t>
+  </si>
+  <si>
+    <t>IEEE International Conference on Software Testing, Verification and Validation</t>
+  </si>
+  <si>
+    <t>Registers,Androids,Humanoid robots,Electronic mail,Target tracking,Tools,Facebook</t>
+  </si>
+  <si>
+    <t>In the Android system design, any app can start another app's public components to facilitate code reuse by sending an asynchronous message called Intent. In addition, Android also allows an app to have private components that should only be visible to the app itself. However, malicious apps can bypass this system protection and directly invoke private components in vulnerable apps through a class of newly discovered vulnerability, which is called next-intent vulnerability. In this paper, we design an intent flow analysis strategy which accurately tracks the intent in smali code to statically detect next-intent vulnerabilities efficiently and effectively on a large scale. We further propose an automated approach to dynamically verify the discovered vulnerabilities by generating exploit apps. Then we implement a tool named NIVAnalyzer and evaluate it on 20,000 apps downloaded from Google Play. As the result, we successfully confirms 190 vulnerable apps, some of which even have millions of downloads. We also confirmed that an open-source project and a third-party SDK, which are still used by other apps, have next intent vulnerabilities.</t>
+  </si>
+  <si>
+    <t>Enhancing the accuracy of static analysis for detecting sensitive data leakage in Android by using dynamic analysis</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s10586-017-1364-8</t>
+  </si>
+  <si>
+    <t>10.1007/s10586-017-1364-8</t>
+  </si>
+  <si>
+    <t>Detecting inter-application information leak,Hybrid analysis,Data Flow analysis</t>
+  </si>
+  <si>
+    <t>One approach of Android security is the analysis for detecting potential information leaks. The current technical analyses (as static analysis, dynamic analysis, hybrid of static and dynamic analysis) only focus on action within a single application, while the coordinated action of several applications for the malicious purpose is becoming popular. This study proposes a hybrid approach that combines static and dynamic analysis to detect information leak as a result of the coordinated action of multiple applications. In this text, we call it inter-application malware. The analysis takes place in two stages. The first stage uses static analysis to indicate the chains of sensitive actions on multiple applications. The second stage validates whether the chain of sensitive actions indeed leaks user’s data by using the dynamic analysis. In fact, the applications in question are forced to execute after the chains of sensitive actions detected in the first stage. The sensitive actions are monitored and analyzed to determine which actions are the causes of information leakage. And we have implemented an analysis tool, named eDSDroid. We have evaluated our tool on the famous Toyapps test case. The test result shows the correctness and effectiveness of our tool.</t>
+  </si>
+  <si>
+    <t>Detecting sensitive data leakage via inter-applications on Android using a hybrid analysis technique</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s10586-017-1260-2</t>
+  </si>
+  <si>
+    <t>10.1007/s10586-017-1260-2</t>
+  </si>
+  <si>
+    <t>Android security,Hybrid analysis,Inter-application communication,Sensitive data leakage detection</t>
+  </si>
+  <si>
+    <t>In this study, we present the uitHyDroid system, which allows the detection of sensitive data leakage via multi-applications using hybrid analysis. uitHyDroid uses static analysis to collect user interface elements that must interact to illuminate possible sensitive data flows. In addition, dynamic analysis is used to capture inter-application communications to link partial sensitive data flows from static analysis. This approach is faster than using only dynamic analysis. In this study, we use hooking technology to conduct dynamic analysis phase emulator modification. The experimental results show that the proposed system can detect most sensitive data leakages for both our dataset and real-world applications.</t>
+  </si>
+  <si>
+    <t>Sensitive Data Leakage Detection in Pre-Installed Applications of Custom Android Firmware</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/abstract/document/7962474/</t>
+  </si>
+  <si>
+    <t>10.1109/MDM.2017.56</t>
+  </si>
+  <si>
+    <t>International Conference on Mobile Data Management</t>
+  </si>
+  <si>
+    <t>Read only memory,Smart phones,Androids,Humanoid robots,Microprogramming,Malware,Security</t>
+  </si>
+  <si>
+    <t>There are many custom Android firmware (custom ROMs) which are shared on the Internet. Several recent studies aim their efforts at analyzing pre-installed applications in these firmware. However, they analyzed separate pre-installed applications. In this study we propose a system, uitXROM, to detect sensitive data leakage in custom Android firmware by analyzing relationships of pre-installed applications. The experimental results show that the system can detect all sensitive data leakage in our custom Android firmware. Secondly, it detects several pre-installed applications which leak sensitive data from 290 custom ROMs downloaded from the Internet.</t>
+  </si>
+  <si>
+    <t>State-Taint Analysis for Detecting Resource Bugs</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/abstract/document/7541902/</t>
+  </si>
+  <si>
+    <t>http://tees.openrepository.com/tees/bitstream/10149/620561/2/620561.pdf</t>
+  </si>
+  <si>
+    <t>10.1109/TASE.2016.17</t>
+  </si>
+  <si>
+    <t>International Symposium on Theoretical Aspects of Software Engineering</t>
+  </si>
+  <si>
+    <t>Protocols,Computer bugs,Automata,Smart phones,Androids,Humanoid robots,Batteries</t>
+  </si>
+  <si>
+    <t>To verify whether a program uses resources in a valid manner is vital for program correctness. A number of solutions have been proposed to ensure such a property for resource usage. But most of them are sophisticated to use for resource bugs detection in practice and do not concern about the issue that an opened resource should be used. This open-but-not-used problem can cause resource starvation in some case as well. In particular, resources of smartphones are not only scarce but also energy-hungry. The misuse of resources could not only cause the system to run out of resources but also lead to a shorter battery life. That is the so-call energy leak problem. Aiming to provide a lightweight method and to detect as many resource bugs as possible, we propose a statetaint analysis in this paper. First, take the open-but-not-used problem into account, we specify the appropriate usage of resources as resource protocols. Then we propose a taint-like analysis which takes resource protocols as a guide to detect resource bugs. As an application, we enrich the resource usage protocols by taking into account energy leaks and use the refined protocols to guide the analysis for energy leak detection. We implement the analysis as a prototype tool called statedroid. Using this tool, we conduct experiments on several real Android applications and find several energy leaks.</t>
+  </si>
+  <si>
+    <t>The cause of all evils: Assessing causality between user actions and malware activity</t>
+  </si>
+  <si>
+    <t>https://www.usenix.org/system/files/conference/cset17/cset17-paper-mariconti.pdf</t>
+  </si>
+  <si>
+    <t>usenix.org</t>
+  </si>
+  <si>
+    <t>Symposium On Usable Privacy and Security</t>
+  </si>
+  <si>
+    <t>Android Malware Detection Method Based on Function Call Graphs</t>
+  </si>
+  <si>
+    <t>http://link.springer.com/chapter/10.1007/978-3-319-46681-1_9</t>
+  </si>
+  <si>
+    <t>10.1007/978-3-319-46681-1_9</t>
+  </si>
+  <si>
+    <t>International Conference on Neural Information Processing</t>
+  </si>
+  <si>
+    <t>Android malware,Static detection,Machine learning</t>
+  </si>
+  <si>
+    <t>With the rapid development of mobile Internet, mobile devices have been widely used in people’s daily life, which has made mobile platforms a prime target for malware attack. In this paper we study on Android malware detection method. We propose the method how to extract the structural features of android application from its function call graph, and then use the structure features to build classifier to classify malware. The experiment results show that structural features can effectively improve the performance of malware detection methods.</t>
+  </si>
+  <si>
+    <t>Android malware detection method based on naive Bayes and permission correlation algorithm</t>
+  </si>
+  <si>
+    <t>http://link.springer.com/article/10.1007/s10586-017-0981-6</t>
+  </si>
+  <si>
+    <t>10.1007/s10586-017-0981-6</t>
+  </si>
+  <si>
+    <t>Naive Bayes,Android malware detection,Privilege feature,Correlation coefficient,Information theory</t>
+  </si>
+  <si>
+    <t>In order to detect Android malware more effectively, an Android malware detection model was proposed based on improved naive Bayes classification. Firstly, considering the unknown permission that may be malicious in detection samples, and in order to improve the Android detection rate, the algorithm of malware detection is proposed based on improved naive Bayes. Considering the limited training samples, limited permissions, and the new malicious permissions in the test samples, we used the impact of the new malware permissions and training permissions as the weight. The weighted naive Bayesian algorithm improves the Android malware detection efficiency. Secondly, taking into account the detection model, we proposed a detection model of permissions and information theory based on the improved naive Bayes algorithm. We analyzed the correlation of the permission. By calculating the Pearson correlation coefficient, we determined the value of Pearson correlation coefficient r, and delete the permissions whose value r is less than the threshold \(\rho \) and get the new permission set. So, we got the improved detection model by clustering based on information theory. Finally, we detected the 1725 Android malware and 945 non malicious application of multiple data sets in the same simulation environment. The detection rate of the improved the naive Bayes algorithm is 86.54%, and the detection rate of the non-malicious application is increased to 97.59%. Based on the improved naive Bayes algorithm, the false detection rate of the improved detection model is reduced by 8.25%.</t>
+  </si>
+  <si>
+    <t>Slick: an intrusion detection system for virtualized storage devices</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=2851795</t>
+  </si>
+  <si>
+    <t>http://www.cs.vu.nl/~giuffrida/papers/sac-2016.pdf</t>
+  </si>
+  <si>
+    <t>10.1145/2851613.2851795</t>
+  </si>
+  <si>
+    <t>bootkit detection,intrusion detection,intrusion detection systems,virtual storage</t>
+  </si>
+  <si>
+    <t>Cloud computing is rapidly reshaping the server administration landscape. The widespread use of virtualization and the increasingly high server consolidation ratios, in particular, have introduced unprecedented security challenges for users, increasing the exposure to intrusions and opening up new opportunities for attacks. Deploying security mechanisms in the hypervisor to detect and stop intrusion attempts is a promising strategy to address this problem. Existing hypervisor-based solutions, however, are typically limited to very specific classes of attacks and introduce exceedingly high performance overhead for production use.</t>
+  </si>
+  <si>
+    <t>An Android Malware Detection System Based on Behavior Comparison Analysis</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/chapter/10.1007/978-3-319-65482-9_26</t>
+  </si>
+  <si>
+    <t>10.1007/978-3-319-65482-9_26</t>
+  </si>
+  <si>
+    <t>International Conference on Algorithms and Architectures for Parallel Processing</t>
+  </si>
+  <si>
+    <t>Android malware detection,Android application behavior model,Behavior analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At present, Android malwares become more and more subtle and intelligent, after their invasion, they often detect whether the running environment is a real environment, to decide whether to perform their malicious behavior. Therefore, malware tend to execute different behavior when running in different environments. Benign applications will perform the same functions in different environments, their behaviors have a strong consistency. Based on this basic idea, we design an Android malware detection method based on behavior comparison analysis. First, design and development a number of specific different running environments, and then execute application in these environments. With the same event input, record and compare the behaviors of this application, calculate the difference, determine whether it is malicious. Under the guidance of this thought, we design and development the Android malware detection system EmuProtect. We evaluate EmuProtect system from the aspects of accuracy and validity, the results show that this system can effectively detect Android malicious applications.
+</t>
+  </si>
+  <si>
+    <t>A study of android malware detection techniques in virtual environment</t>
+  </si>
+  <si>
+    <t>http://link.springer.com/article/10.1007/s10586-016-0630-5</t>
+  </si>
+  <si>
+    <t>10.1007/s10586-016-0630-5</t>
+  </si>
+  <si>
+    <t>Android malware,Virtual machine,Analysis Android malware,Android malware detection</t>
+  </si>
+  <si>
+    <t>With the rapid development of mobile environment, cyber-attacks have become more commonplace and more sophisticated. In smartphone operating system market, in particular, Android platform accounts for a large portion (65 % or higher). At the same time, malwares on the Android platform, has increased exponentially. This, such as mobile Internet service provider (ISP) operator and device manufacturers, have applied an anti-virus product. However, there exhibit a high false-positive rate to detect malwares because these are based on patterns or heuristic. To solve this problem, this study proposed and implemented Android malware detection techniques in virtual environment, using single physical machine. The proposed system is divided into a host system and virtual environment. The former features black market crawler designed to collect malware, hypervisor targeted for the communication and control of virtual machine and host machine and main module which transmits analysis file and result log to each system. In virtual environment, agent and emulator were implemented to analyze malware-suspicious application. This study implemented more active and faster Android malware detection techniques through black market crawling and Linux kernel-hooking mechanism.</t>
+  </si>
+  <si>
+    <t>Towards a Hybrid Intrusion Detection System for Android-based PPDR terminals</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/abstract/document/7987434/</t>
+  </si>
+  <si>
+    <t>http://dl.ifip.org/db/conf/im/im2017-ws3-dissect/178.pdf</t>
+  </si>
+  <si>
+    <t>10.23919/INM.2017.7987434</t>
+  </si>
+  <si>
+    <t>IFIP/IEEE International Symposium on Integrated Network Management</t>
+  </si>
+  <si>
+    <t>Malware,Mobile handsets,Security,Performance evaluation,Monitoring,Mobile communication,Correlation</t>
+  </si>
+  <si>
+    <t>Mobile devices are used for communication and for tasks that are sensitive and subject to tampering. Indeed, attacks can be performed on the users' devices without user awareness, this represents additional risk in mission critical scenarios, such as Public Protection and Disaster Relief (PPDR). Intrusion Detection Systems are important for scenarios where information leakage is of crucial importance, since they allow to detect possible attacks to information assets (e.g., installation of malware), or can even compromise the security of PPDR personnel. HyIDS is an Hybrid IDS for Android and supporting the stringent security requirements of PPDR, by comprising agents that continuously monitor mobile device and periodically transmit the data to an analysis framework at the Command Control Center (CCC). The data collection retrieves resource usage metrics for each installed application such as CPU, memory usage, and incoming and outgoing network traffic. At the CCC, the HyIDS employs Machine Learning techniques to identify patterns that are consistent with malware signatures based on the data collected from the applications. The HyIDS's evaluation results demonstrate that the proposed solution has low impact on the mobile device in terms of battery consumption and CPU/memory usage.</t>
+  </si>
+  <si>
+    <t>You can't touch this: Consumer-centric android application repackaging detection</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/article/pii/S0167739X16301327</t>
+  </si>
+  <si>
+    <t>https://s2lab.isg.rhul.ac.uk/papers/files/fgcs2016.pdf</t>
+  </si>
+  <si>
+    <t>10.1016/j.future.2016.05.021</t>
+  </si>
+  <si>
+    <t>Future Generation Computer Systems</t>
+  </si>
+  <si>
+    <t>Android,Application repackaging,User-centric security,User privacy,Effectiveness analysis,Electronic fraud</t>
+  </si>
+  <si>
+    <t>â¢We propose an application store agnostic repackaging detection method.â¢Detection based on elements that an attacker is reluctant to significantly alter.â¢91% detection rate on real repackaged applications.â¢Detection of repackaged applications that clone original applicationâs name and icon.â¢Detection of repackaged applications that only clone the application name and icon.</t>
+  </si>
+  <si>
+    <t>Reprint of “You can't touch this: Consumer-centric android application repackaging detection”</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0167739X17325451</t>
+  </si>
+  <si>
+    <t>10.1016/j.future.2017.11.011</t>
+  </si>
+  <si>
+    <t>Android application classification and anomaly detection with graph-based permission patterns</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/article/pii/S0167923616301555</t>
+  </si>
+  <si>
+    <t>10.1016/j.dss.2016.09.006</t>
+  </si>
+  <si>
+    <t>Decision Support Systems</t>
+  </si>
+  <si>
+    <t>Android,Permission patterns,Classification,Anomaly detection,Risk warning,Graph analysis</t>
+  </si>
+  <si>
+    <t>â¢We build permission usage patterns for Android application categories using graph.â¢We classify applications into categories using patterns and graph-analysis features.â¢Among metrics, betweenness centrality and weighted degree performed the best for classification.â¢We build a pattern-based risk metric for applications.â¢The risk metric showed high performance for malware detection.</t>
+  </si>
+  <si>
+    <t>Characterizing Android apps' behavior for effective detection of malapps at large scale</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/article/pii/S0167739X17307720</t>
+  </si>
+  <si>
+    <t>10.1016/j.future.2017.04.041</t>
+  </si>
+  <si>
+    <t>Android,Malicious apps detection,Feature comparison</t>
+  </si>
+  <si>
+    <t>First work defining app-specific and platform-defined features to characterize apps.â¢A set of algorithms based on these features is employed to detect malapps.â¢The relevant features are thoroughly analyzed to discover the patterns of apps.â¢18,363 malapps and 217,619 benign apps in real-world are used to validate our methods.</t>
+  </si>
+  <si>
+    <t>MOCDroid: multi-objective evolutionary classifier for Android malware detection</t>
+  </si>
+  <si>
+    <t>http://link.springer.com/article/10.1007/s00500-016-2283-y</t>
+  </si>
+  <si>
+    <t>10.1007/s00500-016-2283-y</t>
+  </si>
+  <si>
+    <t>Soft Computing</t>
+  </si>
+  <si>
+    <t>Android,Malware,Clustering,Classification</t>
+  </si>
+  <si>
+    <t>Malware threats are growing, while at the same time, concealment strategies are being used to make them undetectable for current commercial antivirus. Android is one of the target architectures where these problems are specially alarming due to the wide extension of the platform in different everyday devices. The detection is specially relevant for Android markets in order to ensure that all the software they offer is clean. However, obfuscation has proven to be effective at evading the detection process. In this paper, we leverage third-party calls to bypass the effects of these concealment strategies, since they cannot be obfuscated. We combine clustering and multi-objective optimisation to generate a classifier based on specific behaviours defined by third-party call groups. The optimiser ensures that these groups are related to malicious or benign behaviours cleaning any non-discriminative pattern. This tool, named MOCDroid, achieves an accuracy of 95.15 % in test with 1.69 % of false positives with real apps extracted from the wild, overcoming all commercial antivirus engines from VirusTotal.</t>
+  </si>
+  <si>
+    <t>Identification of Cryptographic Vulnerability and Malware Detection in Android</t>
+  </si>
+  <si>
+    <t>https://www.semanticscholar.org/paper/Identification-of-Cryptographic-Vulnerability-and-Kumawat-Sharma/8a284173fb1ae3ecb1b5337bc1259ec1ee975740</t>
+  </si>
+  <si>
+    <t>http://www.igi-global.com/article/identification-of-cryptographic-vulnerability-and-malware-detection-in-android/181545</t>
+  </si>
+  <si>
+    <t>International Journal of Information Security and Privacy</t>
+  </si>
+  <si>
+    <t>Evaluation of machine learning classifiers for mobile malware detection</t>
+  </si>
+  <si>
+    <t>http://link.springer.com/article/10.1007/s00500-014-1511-6</t>
+  </si>
+  <si>
+    <t>https://pdfs.semanticscholar.org/cf6b/5797d922678f0f03a8bbad96b0d7482d8c02.pdf</t>
+  </si>
+  <si>
+    <t>10.1007/s00500-014-1511-6</t>
+  </si>
+  <si>
+    <t>Intrusion detection system,Machine learning,Android malware detection,Anomaly based,Mobile device</t>
+  </si>
+  <si>
+    <t>Mobile devices have become a significant part of people’s lives, leading to an increasing number of users involved with such technology. The rising number of users invites hackers to generate malicious applications. Besides, the security of sensitive data available on mobile devices is taken lightly. Relying on currently developed approaches is not sufficient, given that intelligent malware keeps modifying rapidly and as a result becomes more difficult to detect. In this paper, we propose an alternative solution to evaluating malware detection using the anomaly-based approach with machine learning classifiers. Among the various network traffic features, the four categories selected are basic information, content based, time based and connection based. The evaluation utilizes two datasets: public (i.e. MalGenome) and private (i.e. self-collected). Based on the evaluation results, both the Bayes network and random forest classifiers produced more accurate readings, with a 99.97 % true-positive rate (TPR) as opposed to the multi-layer perceptron with only 93.03 % on the MalGenome dataset. However, this experiment revealed that the k-nearest neighbor classifier efficiently detected the latest Android malware with an 84.57 % true-positive rate higher than other classifiers.</t>
+  </si>
+  <si>
+    <t>An integrated static detection and analysis framework for android</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/article/pii/S1574119216000420</t>
+  </si>
+  <si>
+    <t>10.1016/j.pmcj.2016.03.003</t>
+  </si>
+  <si>
+    <t>Pervasive and Mobile Computing</t>
+  </si>
+  <si>
+    <t>Android security,Malware detection,Static detection,Threat degree</t>
+  </si>
+  <si>
+    <t>The security and privacy issues of android system have attracted a lot of attention from both industry and academia in recent years. Static detection is one typical method to analyze malicious code. However, existing single static detection method can introduce high false alarm rate and is only appropriate for a limited scope. In this paper, we propose an integrated static detection framework, which consists of four layers of filtering mechanisms, that is, the message digest (MD5) values, the combination of malicious permissions, the dangerous permissions, and the dangerous intention, respectively. An intuitive threat-degree model is proposed especially on dangerous permissions detection. Furthermore, we implement a prototype system ASE and validate its feasibility, performance and scalability. A comprehensive evaluation shows that the proposed framework has obvious advantages especially in efficiency, granularity, layers, and correctness.</t>
+  </si>
+  <si>
+    <t>DroidChain: A novel Android malware detection method based on behavior chains</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/article/pii/S1574119216300906</t>
+  </si>
+  <si>
+    <t>10.1016/j.pmcj.2016.06.018</t>
+  </si>
+  <si>
+    <t>Android malware,Behavior chain,Privacy leakage,SMS financial charge,Malware installation,Privilege escalation</t>
+  </si>
+  <si>
+    <t>The drastic increase of Android malware has led to strong interest in automating malware analysis. In this paper, to fight against malware variants and zero-day malware, we proposed DroidChain: a method combining static analysis and a behavior chain model. We transform the malware detection problem into more accessible matrix form. Using this method, we propose four kinds of malware models, including privacy leakage, SMS financial charges, malware installation, and privilege escalation. To reduce time complexity, we propose the WxShall-extend algorithm. We had moved the prototype to GitHub and evaluate using 1260 malware samples. Experimental malware detection results demonstrate accuracy, precision, and recall of 73%â93%, 71%â99%, and 42%â92%, respectively. Calculation time accounts for 6.58% of the well-known Warshall algorithmâs expense. Results demonstrate that our method, which can detect four kinds of malware simultaneously, is better than Androguard and Kirin.</t>
+  </si>
+  <si>
+    <t>Android malware detection based on system call sequences and LSTM</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s11042-017-5104-0</t>
+  </si>
+  <si>
+    <t>10.1007/s11042-017-5104-0</t>
+  </si>
+  <si>
+    <t>Multimedia Tools and Applications</t>
+  </si>
+  <si>
+    <t>Android malware detection,System call sequences,Deep learning,LSTM language model</t>
+  </si>
+  <si>
+    <t>As Android-based mobile devices become increasingly popular, malware detection on Android is very crucial nowadays. In this paper, a novel detection method based on deep learning is proposed to distinguish malware from trusted applications. Considering there is some semantic information in system call sequences as the natural language, we treat one system call sequence as a sentence in the language and construct a classifier based on the Long Short-Term Memory (LSTM) language model. In the classifier, at first two LSTM models are trained respectively by the system call sequences from malware and those from benign applications. Then according to these models, two similarity scores are computed. Finally, the classifier determines whether the application under analysis is malicious or trusted by the greater score. Thorough experiments show that our approach can achieve high efficiency and reach high recall of 96.6% with low false positive rate of 9.3%, which is better than the other methods.</t>
+  </si>
+  <si>
+    <t>Parallel implementing improved k-means applied for image retrieval and anomaly detection</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s11042-016-3638-1</t>
+  </si>
+  <si>
+    <t>10.1007/s11042-016-3638-1</t>
+  </si>
+  <si>
+    <t>K-means,Information entropy,PCA,Cloud computing,Mobile networks,Image retrieval</t>
+  </si>
+  <si>
+    <t>Anomaly detection based on data mining is one of the key technologies to be applied to intelligent detection. K-means is a classic clustering algorithm which is efficient for anomaly detection. Traditional K-means is sensitive to the selection of initial clustering centers. Different initial value can cause different clustering results. We combine improved DD algorithm with information entropy to improve the performance of K-means. Improved K-means can optimize the selection of initial clustering centers; automatically decide the number of clusters and output stable clustering results. After the pretreatment of PCA, the adaptability of improved K-means has a distinct progress. To solve the problem of massive data processing time, we adopt the technology of cloud computing and modify the algorithm for parallel processing. We analyze the performance of improved K-means by using different data sets, KDD Cup99 and public mobile malware data set (i.e. MalGenome). The experimental results illustrate that improved K-means has accurate results and can be applied to anomaly detection in mobile networks. This improved K-means also can be applied for image retrieval by calculating the similarity between each image.</t>
+  </si>
+  <si>
+    <t>A survey on dynamic mobile malware detection</t>
+  </si>
+  <si>
+    <t>http://link.springer.com/article/10.1007/s11219-017-9368-4</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Zheng_Yan4/publication/317173690_A_survey_on_dynamic_mobile_malware_detection/links/59d0aeb0aca2721f43671db9/A-survey-on-dynamic-mobile-malware-detection.pdf</t>
+  </si>
+  <si>
+    <t>10.1007/s11219-017-9368-4</t>
+  </si>
+  <si>
+    <t>Software Quality Journal</t>
+  </si>
+  <si>
+    <t>Mobile malware,Dynamic malware detection,Security threats,Classification algorithm,Evaluation criteria</t>
+  </si>
+  <si>
+    <t>The outstanding advances of mobile devices stimulate their wide usage. Since mobile devices are coupled with third-party applications, lots of security and privacy problems are induced. However, current mobile malware detection and analysis technologies are still imperfect, ineffective, and incomprehensive. Due to the specific characteristics of mobile devices such as limited resources, constant network connectivity, user activities and location sensing, and local communication capability, mobile malware detection faces new challenges, especially on dynamic runtime malware detection. Many intrusions or attacks could happen after a mobile app is installed or executed. The literature still expects practical and effective dynamic malware detection approaches. In this paper, we give a thorough survey on dynamic mobile malware detection. We first introduce the definition, evolution, classification, and security threats of mobile malware. Then, we summarize a number of criteria and performance evaluation measures of mobile malware detection. Furthermore, we compare, analyze, and comment on existing mobile malware detection methods proposed in recent years based on evaluation criteria and measures. Finally, we figure out open issues in this research field and motivate future research directions.</t>
+  </si>
+  <si>
+    <t>Back-propagation neural network on Markov chains from system call sequences: a new approach for detecting Android malware with system call sequences</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/document/7812836/</t>
+  </si>
+  <si>
+    <t>http://digital-library.theiet.org/content/journals/10.1049/iet-ifs.2015.0211</t>
+  </si>
+  <si>
+    <t>10.1049/iet-ifs.2015.0211</t>
+  </si>
+  <si>
+    <t>IET Information Security</t>
+  </si>
+  <si>
+    <t>Markov processes,smart phones,mobile computing,invasive software,backpropagation,neural nets</t>
+  </si>
+  <si>
+    <t>Android has become the most prevalent mobile system, but in the meanwhile malware on this platform is widespread. System call sequences are studied to detect malware. However, malware detection with these approaches relies on common system-call-subsequences. It is not so efficient because it is difficult to decide the appropriate length of the common subsequences. To address this issue, the authors propose a new approach, back-propagation neural network on Markov chains from system call sequences (BMSCS). It treats one system call sequence as a homogeneous stationary Markov chain and applies back-propagation neural network (BPNN) to detect malware by comparing transition probabilities in the chain. Since transition probabilities from one system call to another in malware are significantly different from those in benign applications, BMSCS can efficiently detect malware by capturing the anomaly in state transitions with the help of BPNN. The authors evaluate the performance of BMSCS by experiments with real application samples. The experiment results show that the &lt;italic&gt;F&lt;/italic&gt;-score of BMSCS achieves up to 0.982773, which is higher than the other methods in the literature.</t>
+  </si>
+  <si>
+    <t>A collaborative approach on host and network level android malware detection</t>
+  </si>
+  <si>
+    <t>http://onlinelibrary.wiley.com/doi/10.1002/sec.1723/full</t>
+  </si>
+  <si>
+    <t>WileyOnlineLibrary</t>
+  </si>
+  <si>
+    <t>10.1002/sec.1723</t>
+  </si>
+  <si>
+    <t>Security and Communication Networks</t>
+  </si>
+  <si>
+    <t>We suggest a collaborative approach for revealing malicious behaviors on Android smartphones by which monitoring four observable parts: (i) network usages (ii) network connections, (iii) APIs and (iv) permissions. Therefore, we have designed a detection system which consists of four engines: network behavior analysis engine, host domain reputation analysis engine, critical API call pattern analysis engine, and Android permissions use analysis engine. Each of them monitors its specific part from Android apps and independently detects malicious behavior and, given the information from four engines, the correlator determines a final decision. Finally, to show efficiency, we have evaluated our system with real world 1,621 apps. Copyright © 2017 John Wiley &amp; Sons, Ltd.</t>
+  </si>
+  <si>
+    <t>The Concept of Attack Scenarios and Its Applications in Android Malware Detection</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/abstract/document/7828552/</t>
+  </si>
+  <si>
+    <t>10.1109/HPCC-SmartCity-DSS.2016.0211</t>
+  </si>
+  <si>
+    <t>Malware,Androids,Humanoid robots,Smart phones,Feature extraction,Data mining,Classification algorithms</t>
+  </si>
+  <si>
+    <t>In this paper, we propose the concept of attack scenarios, which can be learned and selected from a set of malicious applications and described by sets of Android APIs, to characterize Android malware. Because of its characteristics that produce almost no false-positive, attack scenarios can be used as a pre-filter for machine-learning based detectors to enhance the detection performance at low false-positive rate. By combining different machine learning techniques, we demonstrate that the proposed approach can increase the detection rates. To evaluate our approach, we analyze 20,914 Android application containing 3,145 malicious samples on two different machine learning techniques, KNN and SVM. The experiment results show that the proposed approach can raise the detection rate up to 95.9% malware at 1% false positive rate and 95.9% malware at 0.1% false positive rate respectively.</t>
+  </si>
+  <si>
+    <t>Research on android malware permission pattern using permission monitoring system</t>
+  </si>
+  <si>
+    <t>http://link.springer.com/article/10.1007/s11042-016-3273-x</t>
+  </si>
+  <si>
+    <t>10.1007/s11042-016-3273-x</t>
+  </si>
+  <si>
+    <t>Mobile security,Application permission,Application analysis</t>
+  </si>
+  <si>
+    <t>Mobile anti-viruses used mainly are the reverse engineering-based analysis and the sandbox-based analysis. There methods can analyze in detail. But, they take a lot of time and have a one-time payout.</t>
+  </si>
+  <si>
+    <t>Static detection of energy defect patterns in Android applications</t>
+  </si>
+  <si>
+    <t>http://dl.acm.org/citation.cfm?id=2892218</t>
+  </si>
+  <si>
+    <t>http://web.cse.ohio-state.edu/presto/pubs/cc16.pdf</t>
+  </si>
+  <si>
+    <t>10.1145/2892208.2892218</t>
+  </si>
+  <si>
+    <t>Computer Communications</t>
+  </si>
+  <si>
+    <t>algorithms,android,energy,experimentation,gui analysis,measurement,program semantics,static analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For static analysis researchers, Android software presents a wide variety of interesting challenges. The target of our work is static detection of energy-drain defects in Android applications. The management of energy-intensive resources (e.g., GPS) creates various opportunities for software defects. Our goal is to detect statically “missing deactivation” energy-drain defects in the user interface of the application. First, we define precisely two patterns of run-time energy-drain behaviors, based on modeling of Android GUI control-flow paths and energy-related listener leaks along such paths. Next, we define a static detection algorithm targeting these patterns. The analysis considers valid interprocedural control-flow paths in a callback method and its transitive callees, in order to detect operations that add or remove listeners. Sequences of callbacks are then analyzed for possible listener leaks. Our evaluation considers the detection of GUI-related energy-drain defects reported in prior work, as well as new defects not discovered by prior approaches. In summary, the detection is very effective and precise, suggesting that the proposed analysis is suitable for practical use in static checking tools for Android. </t>
+  </si>
+  <si>
+    <t>Bio-inspired computational paradigm for feature investigation and malware detection: interactive analytics</t>
+  </si>
+  <si>
+    <t>http://link.springer.com/article/10.1007/s11042-017-4586-0</t>
+  </si>
+  <si>
+    <t>10.1007/s11042-017-4586-0</t>
+  </si>
+  <si>
+    <t>Static analysis,Malware,Feature selection,Android,Machine learning,Neural network</t>
+  </si>
+  <si>
+    <t>Recently, people rely on mobile devices to conduct their daily fundamental activities. Simultaneously, most of the people prefer devices with Android operating system. As the demand expands, deceitful authors develop malware to compromise Android for private and money purposes. Consequently, security analysts have to conduct static and dynamic analyses to counter malware violation. In this paper, we adopt static analysis which only requests minimal resource consumption and rapid processing. However, finding a minimum set of features in the static analysis are vital because it removes irrelevant data, reduces the runtime of machine learning detection and reduces the dimensionality of datasets. Therefore, in this paper, we investigate three categories of features, which are permissions, directory path, and telephony. This investigation considers the features frequency as well as repeatedly used in each application. Subsequently, this study evaluates the proposed features in three bio-inspired machine learning classifiers in artificial neural network (ANN) category to signify the usefulness of ANN type in uncovering unknown malware. The classifiers are multilayer perceptron (MLP), voted perceptron (VP) and radial basis function network (RBFN). Among all these three classifiers, the outstanding outcomes acquire is the MLP, which achieves 90% in accuracy and 87% in true positive rate (TPR), as well as 97% accuracy in our Bio Analyzer prediction system.</t>
+  </si>
+  <si>
+    <t>Detecting android malicious apps and categorizing benign apps with ensemble of classifiers</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/article/pii/S0167739X17300742</t>
+  </si>
+  <si>
+    <t>10.1016/j.future.2017.01.019</t>
+  </si>
+  <si>
+    <t>Android security,Malware detection,Intrusion detection,Classification,Ensemble learning,Static analysis</t>
+  </si>
+  <si>
+    <t>â¢First work to provide a complete solution for automated categorization of apps.â¢Extract 23,74,340 features from each APK file.â¢Use ensemble of multiple classifiers to improve the detection accuracy.â¢Use large data sets containing 107,327 benign apps and 8701 malapps for testing.â¢Reach detection accuracy as 99.39% and categorization accuracy as 82.93%.</t>
+  </si>
+  <si>
+    <t>DroidDet: Effective and robust detection of android malware using static analysis along with rotation forest model</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S0925231217312870</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Xing_Chen40/publication/318594593_DroidDet_effective_and_robust_detection_of_Android_malware_using_static_analysis_along_with_rotation_forest_model/links/59f700a50f7e9b553ebd4c0e/DroidDet-effective-and-robust-detection-of-Android-malware-using-static-analysis-along-with-rotation-forest-model.pdf</t>
+  </si>
+  <si>
+    <t>10.1016/j.neucom.2017.07.030</t>
+  </si>
+  <si>
+    <t>Neurocomputing</t>
+  </si>
+  <si>
+    <t>Rotation forests,Malware detection,Neural Network,Mobile phones</t>
+  </si>
+  <si>
+    <t>The Android platform is becoming increasinglyâ¯popular and various organizations have developed a variety of applications (App) to cater to market trends. Due to the characteristics of the Android platform, such as supporting the unofficial App stores, open source policy and the great tolerance for App verification, it is inevitable that it faces serious problems of malicious software intrusion. In order to protect the users from the serious damages caused by Android malware, we propose a low-cost and high-efficient method to extract permissions, sensitive APIs, monitoring system events and permission-rate as key features, and employ the ensemble Rotation Forest (RF) to construct a model to detect whether an Android App is malicious or not. Specifically, a dataset containing 2,130 samples is used to verify the performance of the proposed method. The experimental results show that the proposed method achieves an high accuracy of 88.26% with 88.40% sensitivity at the precision of 88.16%. To further evaluate the performance of the proposed model, we also compare it with the state-of-the-art Support Vector Machine (SVM) model under the same experimental conditions, and the comparison results demonstrate that the proposed method improves the accuracy by 3.33% compared to SVM. The experimental results show that the proposed model is extremely promising and could provide a cost-effective alternative for Android malware detection.</t>
+  </si>
+  <si>
+    <t>Generative versus discriminative classifiers for android anomaly‐based detection system using system calls filtering and abstraction process</t>
+  </si>
+  <si>
+    <t>http://onlinelibrary.wiley.com/doi/10.1002/sec.1555/full</t>
+  </si>
+  <si>
+    <t>10.1002/sec.1555</t>
+  </si>
+  <si>
+    <t>Anomaly-based detection techniques have been widely studied in recent years. Most of these efforts have focused to improve the accuracy of these techniques. The poor accuracy performance is caused by two factors: (i) the data used for the analysis is insufficient and/or unrepresentative of the application behavior, or (ii) inappropriate algorithms are used to model the behavior of the application. In this paper, we attempt to improve anomaly-based detection techniques by examining these two factors. First, we use system call filtering and abstraction process. This process refines the system call traces. The refined traces are compact and should be more representative of the application main behavior. Second, we use machine learning classifiers to characterize the benign behavior. Generally, there are two main categories of machine learning classifiers: generative classifiers and discriminative classifiers. In their initial training phases, the classifiers build models characterizing the benign behavior. Later on, these models are used to distinguish between different classes of data. They are simply defined by their parameters. The k-means classifier is considered as a representative of the generative classifier category, and the support vector machine classifier as a representative of the discriminative classifier category. The efficiency of these classifiers are reviewed and compared, as well as the impact of the filtering and abstraction process on their performances is evaluated. The experimental results show that the support vector machine model outperforms the k-means model, and the filtering and abstraction process has positive impacts on the performance of both models. Copyright © 2016 John Wiley &amp; Sons, Ltd.</t>
+  </si>
+  <si>
+    <t>DroidScreening: a practical framework for real‐world Android malware analysis</t>
+  </si>
+  <si>
+    <t>http://onlinelibrary.wiley.com/doi/10.1002/sec.1430/full</t>
+  </si>
+  <si>
+    <t>10.1002/sec.1430</t>
+  </si>
+  <si>
+    <t>Analyzing Android malware sample is a time-consuming and error-prone work. Automatic techniques to perform suspicious apps screening and threat level evaluation is highly desired by the antivirus industry. In this paper, we proposed a novel automated framework called DroidScreening to speed up the Android malware analysis process and to assist antivirus analyst in generating the heuristics pattern for scanner. DroidScreening employs lazy associative classification (LAC) algorithms to produce classification model by learning from malicious evidence features extracted by using static analysis on Android application package files. Moreover, we proposed a novel high-interaction execution environment that can interact with malicious Android code, so that the analysis samples are induced to start executing their true malicious behavior. Experimentation on malware datasets and using LAC with traditional learning approaches show that the LAC algorithms outperformed other classification algorithms. Finally, we analyzed the performance of DroidScreening and compare it with other similar research work. Copyright © 2016 John Wiley &amp; Sons, Ltd.</t>
+  </si>
+  <si>
+    <t>Malware detection by applying knowledge discovery processes to application metadata on the Android Market (Google Play)</t>
+  </si>
+  <si>
+    <t>http://onlinelibrary.wiley.com/doi/10.1002/sec.675/full</t>
+  </si>
+  <si>
+    <t>10.1002/sec.675</t>
+  </si>
+  <si>
+    <t>Recent smartphone platforms based on new operating systems, such as iOS, Android, or Windows Phone, have been a huge success in recent years and open up many new opportunities. Unfortunately, 2011 also showed us that the new technologies and the privacy-related data on smartphones are also increasingly interesting for attackers. Especially, the Android platform has been the favorite target for malware, mainly because of the openness of the platform, the ability to install applications from other sources than the Android Market, and the significant gains in market share. Although the processes of detecting and analyzing malware are well known from the PC world, where the arms race between attackers and defenders has continued for the past 15 years, they cannot be directly applied to smartphone platforms because of differences in the hardware and software architectures. In this paper, we first give an overview of the current malware situation on smartphone platforms with a special focus on Android and explain relevant malware detection and analysis methods. It turns out that most of the current malware relies on the installation by the user, who represents the last line of defense in malware detection. With these conclusions, we then present a new malware detection method that focuses on the information that the user is able to see prior to the installation of an application—the metadata within the platform's software market. Depending on the platform, this includes the application's description, its permissions, the ratings, or information about the developer. To analyze these data, we use sophisticated knowledge discovery processes and lean statistical methods. By presenting a wide range of examples based on real application metadata extracted from the Android Market, we show the possibilities of the new method. With the possibilities, we argue that it should be an essential part of a complete malware analysis/detection chain that includes other well-known methods such as network traffic analysis, or static, or dynamic code inspection. Copyright © 2013 John Wiley &amp; Sons, Ltd.</t>
+  </si>
+  <si>
+    <t>SafeDroid: A Distributed Malware Detection Service for Android</t>
+  </si>
+  <si>
+    <t>http://ieeexplore.ieee.org/abstract/document/7796010/</t>
+  </si>
+  <si>
+    <t>http://orbit.dtu.dk/files/127312539/SOCA_1.pdf</t>
+  </si>
+  <si>
+    <t>10.1109/SOCA.2016.14</t>
+  </si>
+  <si>
+    <t>Service Oriented Computing and Applications</t>
+  </si>
+  <si>
+    <t>Malware,Feature extraction,Security,Androids,Humanoid robots,Smart phones,Servers</t>
+  </si>
+  <si>
+    <t>Android platform has become a primary target for malware. In this paper we present SafeDroid, an open source distributed service to detect malicious apps on Android by combining static analysis and machine learning techniques. It is composed by three micro-services, working together, combining static analysis and machine learning techniques. SafeDroid has been designed as a user friendly service, providing detailed feedback in case of malware detection. The detection service is optimized to be lightweight and easily updated. The feature set on which the micro-service of detection relies on on has been selected and optimized in order to focus only on the most distinguishing characteristics of the Android apps. We present a prototype to show the effectiveness of the detection mechanism service and the feasibility of the approach.</t>
+  </si>
+  <si>
+    <t>TD‐WS: a threat detection tool of WebSocket and Web Storage in HTML5 websites</t>
+  </si>
+  <si>
+    <t>http://onlinelibrary.wiley.com/doi/10.1002/sec.1708/full</t>
+  </si>
+  <si>
+    <t>10.1002/sec.1708</t>
+  </si>
+  <si>
+    <t>The new features of HTML5 greatly increase the convenience for both web developers and users, but they also bring new security threats. Although the web-security community has started to analyze the security threats brought by HTML5, little has been performed to address the security threats for the client-side applications. This paper studies security issues of two popular client-side primitives: WebSocket and Web Storage. The security threats concerned in this paper are private information stealth through WebSocket and cross-site scripting vulnerabilities caused by lacking of sanitization for WebSocket messages and Web Storage data. We analyze the unsafe data flows of these two HTML5 primitives in detail. Based on that, we present a threat detection tool called TD-WS, which can automatically detect the privacy leaks and the cross-site scripting vulnerabilities in WebSocket and Web Storage applications. The results show that TD-WS effectively detects the security threats of WebSocket and Web Storage applications. Copyright © 2016 John Wiley &amp; Sons, Ltd.</t>
+  </si>
+  <si>
+    <t>SafeGuard: a behavior based real-time malware detection scheme for mobile multimedia applications in android platform</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s11042-016-4189-1</t>
+  </si>
+  <si>
+    <t>10.1007/s11042-016-4189-1</t>
+  </si>
+  <si>
+    <t>Android malware detection,Mobile multimedia application,Behavior detection,Android platform,Mobile security</t>
+  </si>
+  <si>
+    <t>SafeGuard is proposed as a solution to monitor behaviors of smartphone applications in real-time and detect and block any malicious behaviors. This solution consists of a server that manages and deploys the blocking rules and the device solution that monitors various applications in Android devices. The proposed scheme provides users with real-time malware information such as spyware detected by the SafeGuard library upon suspicious API call within the Android platform. Except for use of Rootkit at the kernel level, the scheme can detect behaviors that use the API from the platform or caused by a combination of those APIs. The database that determines any malicious behaviors can be periodically updated to block various malicious behaviors by using preemptive responses different from existing anti-virus products. For this purpose, the behaviors of smartphone applications are classified and are defined for monitoring. The architecture to apply them is also proposed in the Android framework and the proposed scheme is applied in the Android smartphone environment to verify its stability and feasibility through measuring the overhead in the environment.</t>
+  </si>
+  <si>
+    <t>The rise of “malware”: Bibliometric analysis of malware study</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/article/pii/S1084804516301904</t>
+  </si>
+  <si>
+    <t>10.1016/j.jnca.2016.08.022</t>
+  </si>
+  <si>
+    <t>Journal of Network and Computer Applications</t>
+  </si>
+  <si>
+    <t>Malware,Bibliometric analysis,Malware analysis,Intrusion detection system,Mobile malware</t>
+  </si>
+  <si>
+    <t>â¢Presents a bibliometric analysis of âmalwareâ using the Web of Knowledge database.â¢Presents the discussion upon the research trends related to malware.â¢Review on malware detection systems.â¢Highlights the challenges and future trends in malware detection system.</t>
+  </si>
+  <si>
+    <t>MobileAppScrutinator: A Simple yet Efficient Dynamic Analysis Approach for Detecting Privacy Leaks across Mobile OSs</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1605.08357</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1605.08357</t>
+  </si>
+  <si>
+    <t>arxiv.org</t>
+  </si>
+  <si>
+    <t>arXiv</t>
+  </si>
+  <si>
+    <t>PrivacyProxy: Leveraging Crowdsourcing and In Situ Traffic Analysis to Detect and Mitigate Information Leakage</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1708.06384</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1708.06384</t>
+  </si>
+  <si>
+    <t>A Multi-view Context-aware Approach to Android Malware Detection and Malicious Code Localization</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1704.01759</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1704.01759</t>
+  </si>
+  <si>
+    <t>Context-aware, Adaptive and Scalable Android Malware Detection through Online Learning (extended version)</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1706.00947</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1706.00947</t>
+  </si>
+  <si>
+    <t>MaMaDroid: Detecting Android Malware by Building Markov Chains of Behavioral Models (Extended Version)</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1711.07477</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1711.07477</t>
+  </si>
+  <si>
+    <t>Automated Synthesis of Semantic Malware Signatures using Maximum Satisfiability</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1608.06254</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1608.06254</t>
+  </si>
+  <si>
+    <t>Hardening Malware Detection Systems Against Cyber Maneuvers: An Adversarial Machine Learning Approach</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1706.04146</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1706.04146</t>
+  </si>
+  <si>
+    <t>EMMA: A New Platform to Evaluate Hardware-based Mobile Malware Analyses</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1603.03086</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1603.03086</t>
+  </si>
+  <si>
+    <t>FrauDroid: An Accurate and Scalable Approach to Automated Mobile Ad Fraud Detection</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1709.01213</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1709.01213</t>
+  </si>
+  <si>
+    <t>Modeling the Propagation of Trojan Malware in Online Social Networks</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1708.00969</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1708.00969</t>
+  </si>
+  <si>
+    <t>Detection of App Collusion Potential Using Logic Programming</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1706.02387</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1706.02387</t>
+  </si>
+  <si>
+    <t>Android Malware Detection using Markov Chain Model of Application Behaviors in Requesting System Services</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1711.05731</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1711.05731</t>
+  </si>
+  <si>
+    <t>DroidNative: Semantic-Based Detection of Android Native Code Malware</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1602.04693</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1602.04693</t>
+  </si>
+  <si>
+    <t>N-gram Opcode Analysis for Android Malware Detection</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1612.01445</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1612.01445</t>
+  </si>
+  <si>
+    <t>On labeling Android malware signatures using minhashing and further classification with Structural Equation Models</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1709.04186</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1709.04186</t>
+  </si>
+  <si>
+    <t>Andro-profiler: Detecting and Classifying Android Malware based on Behavioral Profiles</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1606.01403</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1606.01403</t>
+  </si>
+  <si>
+    <t>Neural Network-based Graph Embedding for Cross-Platform Binary Code Similarity Detection</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1708.06525</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1708.06525</t>
+  </si>
+  <si>
+    <t>Static detection of dos vulnerabilities in programs that use regular expressions (extended version)</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1701.04045</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1701.04045</t>
+  </si>
+  <si>
+    <t>Towards automated android app collusion detection</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1603.02308</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1603.02308</t>
+  </si>
+  <si>
+    <t>Smartphones, the devices we carry everywhere with us, are being heavily tracked and have undoubtedly become a major threat to our privacy. As "tracking the trackers" has become a necessity, various static and dynamic analysis tools have been developed in the past. However, today, we still lack suitable tools to detect, measure and compare the ongoing tracking across mobile OSs. To this end, we propose MobileAppScrutinator, based on a simple yet efficient dynamic analysis approach, that works on both Android and iOS (the two most popular OSs today). To demonstrate the current trend in tracking, we select 140 most representative Apps available on both Android and iOS AppStores and test them with MobileAppScrutinator. In fact, choosing the same set of apps on both Android and iOS also enables us to compare the ongoing tracking on these two OSs. Finally, we also discuss the effectiveness of privacy safeguards available on Android and iOS. We show that neither Android nor iOS privacy safeguards in their present state are completely satisfying.</t>
+  </si>
+  <si>
+    <t>Smartphone apps often transmit personally identifiable information (PII) without the user's knowledge. To address this issue, we present PrivacyProxy, a system that monitors outbound network traffic and generates app-specific signatures to represent privacy sensitive data being shared, all without any modifications to the OS. We use a crowdsourcing based approach to detect likely PII in an adaptive and scalable manner by anonymously combining signatures from different users of the same app. Our system design is itself privacy sensitive as we do not see users' network traffic and instead rely on cryptographically hashed signatures. We present the design and implementation of PrivacyProxy and evaluate its effectiveness in detecting various PIIs through a lab study and a field deployment. Our field study shows that even without any user labeling of PII, PrivacyProxy automatically detects various forms of PII with a precision of 0.81. We also show that the performance overhead of PrivacyProxy is under 13% and majority of the users report no perceptible impact on battery life or the network.</t>
+  </si>
+  <si>
+    <t>Existing Android malware detection approaches use a variety of features such as security sensitive APIs, system calls, control-flow structures and information flows in conjunction with Machine Learning classifiers to achieve accurate detection. Each of these feature sets provides a unique semantic perspective (or view) of apps' behaviours with inherent strengths and limitations. Meaning, some views are more amenable to detect certain attacks but may not be suitable to characterise several other attacks. Most of the existing malware detection approaches use only one (or a selected few) of the aforementioned feature sets which prevent them from detecting a vast majority of attacks. Addressing this limitation, we propose MKLDroid, a unified framework that systematically integrates multiple views of apps for performing comprehensive malware detection and malicious code localisation. The rationale is that, while a malware app can disguise itself in some views, disguising in every view while maintaining malicious intent will be much harder.</t>
+  </si>
+  <si>
+    <t>It is well-known that Android malware constantly evolves so as to evade detection. This causes the entire malware population to be non-stationary. Contrary to this fact, most of the prior works on Machine Learning based Android malware detection have assumed that the distribution of the observed malware characteristics (i.e., features) does not change over time. In this work, we address the problem of malware population drift and propose a novel online learning based framework to detect malware, named CASANDRA (Contextaware, Adaptive and Scalable ANDRoid mAlware detector). In order to perform accurate detection, a novel graph kernel that facilitates capturing apps' security-sensitive behaviors along with their context information from dependency graphs is proposed. Besides being accurate and scalable, CASANDRA has specific advantages: i) being adaptive to the evolution in malware features over time ii) explaining the significant features that led to an app's classification as being malicious or benign. In a large-scale comparative analysis, CASANDRA outperforms two state-of-the-art techniques on a benchmark dataset achieving 99.23% F-measure. When evaluated with more than 87,000 apps collected in-the-wild, CASANDRA achieves 89.92% accuracy, outperforming existing techniques by more than 25% in their typical batch learning setting and more than 7% when they are continuously retained, while maintaining comparable efficiency.</t>
+  </si>
+  <si>
+    <t>As Android becomes increasingly popular, so does malware targeting it, this motivating the research community to propose many different detection techniques. However, the constant evolution of the Android ecosystem, and of malware itself, makes it hard to design robust tools that can operate for long periods of time without the need for modifications or costly re-training. Aiming to address this issue, we set to detect malware from a behavioral point of view, modeled as the sequence of abstracted API calls. We introduce MaMaDroid, a static-analysis based system that abstracts app's API calls to their class, package, or family, and builds a model from their sequences obtained from the call graph of an app as Markov chains. This ensures that the model is more resilient to API changes and the features set is of manageable size. We evaluate MaMaDroid using a dataset of 8.5K benign and 35.5K malicious apps collected over a period of six years, showing that it effectively detects malware (with up to 0.99 F-measure) and keeps its detection capabilities for long periods of time (up to 0.87 F-measure two years after training). We also show that MaMaDroid remarkably improves over DroidAPIMiner, a state-of-the-art detection system that relies on the frequency of (raw) API calls. Aiming to assess whether MaMaDroid's effectiveness mainly stems from the API abstraction or from the sequencing modeling, we also evaluate a variant of it that uses frequency (instead of sequences), of abstracted API calls. We find that it is not as accurate, failing to capture maliciousness when trained on malware samples including API calls that are equally or more frequently used by benign apps.</t>
+  </si>
+  <si>
+    <t>This paper proposes a technique for automatically learning semantic malware signatures for Android from very few samples of a malware family. The key idea underlying our technique is to look for a maximally suspicious common subgraph (MSCS) that is shared between all known instances of a malware family. An MSCS describes the shared functionality between multiple Android applications in terms of inter-component call relations and their semantic metadata (e.g., data-flow properties). Our approach identifies such maximally suspicious common subgraphs by reducing the problem to maximum satisfiability. Once a semantic signature is learned, our approach uses a combination of static analysis and a new approximate signature matching algorithm to determine whether an Android application matches the semantic signature characterizing a given malware family.</t>
+  </si>
+  <si>
+    <t>Hardware-based malware detectors (HMDs) are a key emerging technology to build trustworthy computing platforms, especially mobile platforms. Quantifying the efficacy of HMDs against malicious adversaries is thus an important problem. The challenge lies in that real-world malware typically adapts to defenses, evades being run in experimental settings, and hides behind benign applications. Thus, realizing the potential of HMDs as a line of defense - that has a small and battery-efficient code base - requires a rigorous foundation for evaluating HMDs.</t>
+  </si>
+  <si>
+    <t>Previous studies on mobile ad fraud detection are limited to detecting certain types of ad fraud (e.g., placement fraud and click fraud). Dynamic interactive ad fraud has never been explored by previous work. In this paper, we propose an explorative study of ad fraud in Android apps. We first created a taxonomy of existing mobile ad fraud. Besides static placement fraud, we also created a new category called dynamic interactive fraud and found three new types of them. Then we propose FrauDroid, a new approach to detect ad fraud based on user interface (UI) state transition graph and networking traffic. To achieve accuracy and scalability, we use an optimized exploration strategy to traverse the UI states that contain ad views, and design a set of heuristic rules to identify kinds of ad fraud. Experiment results show that FrauDroid could achieve a precision of 80.9\% and it is capable of detecting all the 7 types of mobile ad fraud. We then apply FrauDroid to more than 80,000 apps from 21 app markets to study the prevalene of ad fraud. We find that 0.29\% of apps that use ad libraries are identified containing frauds, with 23 ad networks suffering from ad fraud. Our finding also suggests that Dynamic interactive fraud is more prevalent than static placement fraud in real world apps.</t>
+  </si>
+  <si>
+    <t>The popularity and widespread usage of online social networks (OSN) have attracted cyber criminals who have used OSNs as a platform to spread malware. Among different types of malware in OSNs, Trojan is the most popular type with hundreds of attacks on OSN users in the past few years. Trojans infecting a user's computer have the ability to steal confidential information, install ransomware and infect other computers in the network. Therefore, it is important to understand propagation dynamics of Trojans in OSNs in order to detect, contain and remove them as early as possible. In this article, we present an analytical model to study propagation characteristics of Trojans and factors that impact their propagation in an online social network. The proposed model assumes all the topological characteristics of real online social networks. Moreover, the model takes into account attacking trends of modern Trojans, the role of anti-virus (AV) products, and security practices of OSN users and AV software providers. By taking into account these factors, the proposed model can accurately and realistically estimate the infection rate caused by a Trojan malware in an OSN as well as the recovery rate of the user population.</t>
+  </si>
+  <si>
+    <t>Android is designed with a number of built-in security features such as app sandboxing and permission-based access controls. Android supports multiple communication methods for apps to cooperate. This creates a security risk of app collusion. For instance, a sandboxed app with permission to access sensitive data might leak that data to another sandboxed app with access to the internet. In this paper, we present a method to detect potential collusion between apps. First, we extract from apps all information about their accesses to protected resources and communications. Then we identify sets of apps that might be colluding by using rules in first order logic codified in Prolog. After these, more computationally demanding approaches like taint analysis can focus on the identified sets that show collusion potential. This "filtering" approach is validated against a dataset of manually crafted colluding apps. We also demonstrate that our tool scales by running it on a set of more than 50,000 apps collected in the wild. Our tool allowed us to detect a large set of real apps that used collusion as a synchronization method to maximize the effects of a payload that was injected into all of them via the same SDK.</t>
+  </si>
+  <si>
+    <t>Widespread growth in Android malwares stimulates security researchers to propose different methods for analyzing and detecting malicious behaviors in applications. Nevertheless, current solutions are ill-suited to extract the fine-grained behavior of Android applications accurately and efficiently. In this paper, we propose ServiceMonitor, a lightweight host-based detection system that dynamically detects malicious applications directly on mobile devices. ServiceMonitor reconstructs the fine-grained behavior of applications based on a novel systematic system service use analysis technique. Using proposed system service use perspective enables us to build a statistical Markov chain model to represent what and how system services are used to access system resources. Afterwards, we consider built Markov chain in the form of a feature vector and use it to classify the application behavior into either malicious or benign using Random Forests classification algorithm. ServiceMonitor outperforms current host-based solutions with evaluating it against 4034 malwares and 10024 benign applications and obtaining 96\% of accuracy rate and negligible overhead and performance penalty.</t>
+  </si>
+  <si>
+    <t>According to the Symantec and F-Secure threat reports, mobile malware development in 2013 and 2014 has continued to focus almost exclusively ~99% on the Android platform. Malware writers are applying stealthy mutations (obfuscations) to create malware variants, thwarting detection by signature based detectors. In addition, the plethora of more sophisticated detectors making use of static analysis techniques to detect such variants operate only at the bytecode level, meaning that malware embedded in native code goes undetected. A recent study shows that 86% of the most popular Android applications contain native code, making this a plausible threat. This paper proposes DroidNative, an Android malware detector that uses specific control flow patterns to reduce the effect of obfuscations, provides automation and platform independence, and as far as we know is the first system that operates at the Android native code level, allowing it to detect malware embedded in both native code and bytecode. When tested with traditional malware variants it achieves a detection rate (DR) of 99.48%, compared to academic and commercial tools' DRs that range from 8.33% -- 93.22%. When tested with a dataset of 2240 samples DroidNative achieves a DR of 99.16%, a false positive rate of 0.4% and an average detection time of 26.87 sec/sample.</t>
+  </si>
+  <si>
+    <t>Android malware has been on the rise in recent years due to the increasing popularity of Android and the proliferation of third party application markets. Emerging Android malware families are increasingly adopting sophisticated detection avoidance techniques and this calls for more effective approaches for Android malware detection. Hence, in this paper we present and evaluate an n-gram opcode features based approach that utilizes machine learning to identify and categorize Android malware. This approach enables automated feature discovery without relying on prior expert or domain knowledge for pre-determined features. Furthermore, by using a data segmentation technique for feature selection, our analysis is able to scale up to 10-gram opcodes. Our experiments on a dataset of 2520 samples showed an f-measure of 98% using the n-gram opcode based approach. We also provide empirical findings that illustrate factors that have probable impact on the overall n-gram opcodes performance trends.</t>
+  </si>
+  <si>
+    <t>Multi-scanner Antivirus systems provide insightful information on the nature of a suspect application; however there is often a lack of consensus and consistency between different Anti-Virus engines. In this article, we analyze more than 250 thousand malware signatures generated by 61 different Anti-Virus engines after analyzing 82 thousand different Android malware applications. We identify 41 different malware classes grouped into three major categories, namely Adware, Harmful Threats and Unknown or Generic signatures. We further investigate the relationships between such 41 classes using community detection algorithms from graph theory to identify similarities between them; and we finally propose a Structure Equation Model to identify which Anti-Virus engines are more powerful at detecting each macro-category. As an application, we show how such models can help in identifying whether Unknown malware applications are more likely to be of Harmful or Adware type.</t>
+  </si>
+  <si>
+    <t>Mass-market mobile security threats have increased recently due to the growth of mobile technologies and the popularity of mobile devices. Accordingly, techniques have been introduced for identifying, classifying, and defending against mobile threats utilizing static, dynamic, on-device, off-device, and hybrid approaches. In this paper, we contribute to the mobile security defense posture by introducing Andro-profiler, a hybrid behavior based analysis and classification system for mobile malware. Andro-profiler classifies malware by exploiting the behavior profiling extracted from the integrated system logs including system calls, which are implicitly equivalent to distinct behavior characteristics. Andro-profiler executes a malicious application on an emulator in order to generate the integrated system logs, and creates human-readable behavior profiles by analyzing the integrated system logs. By comparing the behavior profile of malicious application with representative behavior profile for each malware family, Andro-profiler detects and classifies it into malware families. The experiment results demonstrate that Andro-profiler is scalable, performs well in detecting and classifying malware with accuracy greater than $98\%$, outperforms the existing state-of-the-art work, and is capable of identifying zero-day mobile malware samples.</t>
+  </si>
+  <si>
+    <t>The problem of cross-platform binary code similarity detection aims at detecting whether two binary functions coming from different platforms are similar or not. It has many security applications, including plagiarism detection, malware detection, vulnerability search, etc. Existing approaches rely on approximate graph matching algorithms, which are inevitably slow and sometimes inaccurate, and hard to adapt to a new task. To address these issues, in this work, we propose a novel neural network-based approach to compute the embedding, i.e., a numeric vector, based on the control flow graph of each binary function, then the similarity detection can be done efficiently by measuring the distance between the embeddings for two functions. We implement a prototype called Gemini. Our extensive evaluation shows that Gemini outperforms the state-of-the-art approaches by large margins with respect to similarity detection accuracy. Further, Gemini can speed up prior art's embedding generation time by 3 to 4 orders of magnitude and reduce the required training time from more than 1 week down to 30 minutes to 10 hours. Our real world case studies demonstrate that Gemini can identify significantly more vulnerable firmware images than the state-of-the-art, i.e., Genius. Our research showcases a successful application of deep learning on computer security problems.</t>
+  </si>
+  <si>
+    <t>In an algorithmic complexity attack, a malicious party takes advantage of the worst-case behavior of an algorithm to cause denial-of-service. A prominent algorithmic complexity attack is regular expression denial-of-service (ReDoS), in which the attacker exploits a vulnerable regular expression by providing a carefully-crafted input string that triggers worst-case behavior of the matching algorithm. This paper proposes a technique for automatically finding ReDoS vulnerabilities in programs. Specifically, our approach automatically identifies vulnerable regular expressions in the program and determines whether an "evil" input string can be matched against a vulnerable regular expression. We have implemented our proposed approach in a tool called REXPLOITER and found 41 exploitable security vulnerabilities in Java web applications.</t>
+  </si>
+  <si>
+    <t>Android OS supports multiple communication methods between apps. This opens the possibility to carry out threats in a collaborative fashion, c.f. the Soundcomber example from 2011. In this paper we provide a concise definition of collusion and report on a number of automated detection approaches, developed in co-operation with Intel Security.</t>
   </si>
 </sst>
 </file>
@@ -707,7 +2812,187 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="82">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -788,10 +3073,124 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J19" totalsRowShown="0" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J19" totalsRowShown="0" dataDxfId="81">
   <autoFilter ref="A1:J19"/>
   <tableColumns count="10">
     <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="title" dataDxfId="80"/>
+    <tableColumn id="3" name="inc_url" dataDxfId="79"/>
+    <tableColumn id="4" name="pdf_url" dataDxfId="78"/>
+    <tableColumn id="5" name="year" dataDxfId="77"/>
+    <tableColumn id="6" name="include" dataDxfId="76"/>
+    <tableColumn id="7" name="doi" dataDxfId="75"/>
+    <tableColumn id="8" name="published_in" dataDxfId="74"/>
+    <tableColumn id="9" name="keywords" dataDxfId="73"/>
+    <tableColumn id="10" name="abstract" dataDxfId="72"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:J15" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+  <autoFilter ref="A1:J15"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="id" dataDxfId="69"/>
+    <tableColumn id="2" name="title" dataDxfId="68"/>
+    <tableColumn id="3" name="inc_url" dataDxfId="67"/>
+    <tableColumn id="4" name="pdf_url" dataDxfId="66"/>
+    <tableColumn id="5" name="year" dataDxfId="65"/>
+    <tableColumn id="6" name="include" dataDxfId="64"/>
+    <tableColumn id="7" name="doi" dataDxfId="63"/>
+    <tableColumn id="8" name="published_in" dataDxfId="62"/>
+    <tableColumn id="9" name="keywords" dataDxfId="61"/>
+    <tableColumn id="10" name="abstract" dataDxfId="60"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:J18" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+  <autoFilter ref="A1:J18"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="id" dataDxfId="57"/>
+    <tableColumn id="2" name="title" dataDxfId="56"/>
+    <tableColumn id="3" name="inc_url" dataDxfId="55"/>
+    <tableColumn id="4" name="pdf_url" dataDxfId="54"/>
+    <tableColumn id="5" name="year" dataDxfId="53"/>
+    <tableColumn id="6" name="include" dataDxfId="52"/>
+    <tableColumn id="7" name="doi" dataDxfId="51"/>
+    <tableColumn id="8" name="published_in" dataDxfId="50"/>
+    <tableColumn id="9" name="keywords" dataDxfId="49"/>
+    <tableColumn id="10" name="abstract" dataDxfId="48"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:J27" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+  <autoFilter ref="A1:J27"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="id" dataDxfId="45"/>
+    <tableColumn id="2" name="title" dataDxfId="44"/>
+    <tableColumn id="3" name="inc_url" dataDxfId="43"/>
+    <tableColumn id="4" name="pdf_url" dataDxfId="42"/>
+    <tableColumn id="5" name="year" dataDxfId="41"/>
+    <tableColumn id="6" name="include" dataDxfId="40"/>
+    <tableColumn id="7" name="doi" dataDxfId="39"/>
+    <tableColumn id="8" name="published_in" dataDxfId="38"/>
+    <tableColumn id="9" name="keywords" dataDxfId="37"/>
+    <tableColumn id="10" name="abstract" dataDxfId="36"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A1:J53" totalsRowShown="0">
+  <autoFilter ref="A1:J53"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="title"/>
+    <tableColumn id="3" name="inc_url"/>
+    <tableColumn id="4" name="pdf_url"/>
+    <tableColumn id="5" name="year"/>
+    <tableColumn id="6" name="include"/>
+    <tableColumn id="7" name="doi"/>
+    <tableColumn id="8" name="published_in"/>
+    <tableColumn id="9" name="keywords"/>
+    <tableColumn id="10" name="abstract"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表6" displayName="表6" ref="A1:J28" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A1:J28"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="id" dataDxfId="33"/>
+    <tableColumn id="2" name="title" dataDxfId="32"/>
+    <tableColumn id="3" name="inc_url" dataDxfId="31"/>
+    <tableColumn id="4" name="pdf_url" dataDxfId="30"/>
+    <tableColumn id="5" name="year" dataDxfId="29"/>
+    <tableColumn id="6" name="include" dataDxfId="28"/>
+    <tableColumn id="7" name="doi" dataDxfId="27"/>
+    <tableColumn id="8" name="published_in" dataDxfId="26"/>
+    <tableColumn id="9" name="keywords" dataDxfId="25"/>
+    <tableColumn id="10" name="abstract" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="表7" displayName="表7" ref="A1:J28" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:J28"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="id" dataDxfId="21"/>
     <tableColumn id="2" name="title" dataDxfId="20"/>
     <tableColumn id="3" name="inc_url" dataDxfId="19"/>
     <tableColumn id="4" name="pdf_url" dataDxfId="18"/>
@@ -806,20 +3205,20 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:J15" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J15"/>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A1:J20" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:J20"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="id" dataDxfId="9"/>
-    <tableColumn id="2" name="title" dataDxfId="8"/>
-    <tableColumn id="3" name="inc_url" dataDxfId="7"/>
-    <tableColumn id="4" name="pdf_url" dataDxfId="6"/>
-    <tableColumn id="5" name="year" dataDxfId="5"/>
-    <tableColumn id="6" name="include" dataDxfId="4"/>
-    <tableColumn id="7" name="doi" dataDxfId="3"/>
-    <tableColumn id="8" name="published_in" dataDxfId="2"/>
-    <tableColumn id="9" name="keywords" dataDxfId="1"/>
-    <tableColumn id="10" name="abstract" dataDxfId="0"/>
+    <tableColumn id="1" name="id" dataDxfId="11"/>
+    <tableColumn id="2" name="title" dataDxfId="10"/>
+    <tableColumn id="3" name="inc_url" dataDxfId="9"/>
+    <tableColumn id="4" name="pdf_url" dataDxfId="8"/>
+    <tableColumn id="5" name="year" dataDxfId="7"/>
+    <tableColumn id="6" name="include" dataDxfId="6"/>
+    <tableColumn id="7" name="doi" dataDxfId="5"/>
+    <tableColumn id="8" name="published_in" dataDxfId="4"/>
+    <tableColumn id="9" name="keywords" dataDxfId="3"/>
+    <tableColumn id="10" name="abstract" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1124,7 +3523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -2964,4 +5363,4430 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="102.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>88</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>105</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>114</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>132</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>188</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>245</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>301</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>304</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="114" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>307</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>348</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>384</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>476</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>511</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>536</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1149</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1294</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>1301</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="92.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="270.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>78</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>90</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>202</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>212</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>370</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>589</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>622</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>625</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="256.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>630</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="213.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>656</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>674</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="256.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>683</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="256.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>799</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="228" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>952</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>962</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>987</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="114" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>998</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>1038</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="114" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>1055</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>1252</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>1273</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>1279</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>1281</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>1293</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>1484</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="55.625" customWidth="1"/>
+    <col min="3" max="3" width="51.625" customWidth="1"/>
+    <col min="4" max="4" width="72.625" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="9.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>222</v>
+      </c>
+      <c r="B3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E3">
+        <v>2016</v>
+      </c>
+      <c r="F3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>267</v>
+      </c>
+      <c r="B4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C4" t="s">
+        <v>461</v>
+      </c>
+      <c r="D4" t="s">
+        <v>461</v>
+      </c>
+      <c r="E4">
+        <v>2017</v>
+      </c>
+      <c r="F4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>275</v>
+      </c>
+      <c r="B5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D5" t="s">
+        <v>463</v>
+      </c>
+      <c r="E5">
+        <v>2016</v>
+      </c>
+      <c r="F5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>334</v>
+      </c>
+      <c r="B6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D6" t="s">
+        <v>466</v>
+      </c>
+      <c r="E6">
+        <v>2017</v>
+      </c>
+      <c r="F6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>406</v>
+      </c>
+      <c r="B7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C7" t="s">
+        <v>468</v>
+      </c>
+      <c r="D7" t="s">
+        <v>468</v>
+      </c>
+      <c r="E7">
+        <v>2017</v>
+      </c>
+      <c r="F7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>409</v>
+      </c>
+      <c r="B8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C8" t="s">
+        <v>470</v>
+      </c>
+      <c r="D8" t="s">
+        <v>470</v>
+      </c>
+      <c r="E8">
+        <v>2016</v>
+      </c>
+      <c r="F8" t="s">
+        <v>471</v>
+      </c>
+      <c r="H8" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>436</v>
+      </c>
+      <c r="B9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C9" t="s">
+        <v>474</v>
+      </c>
+      <c r="D9" t="s">
+        <v>475</v>
+      </c>
+      <c r="E9">
+        <v>2016</v>
+      </c>
+      <c r="F9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1168</v>
+      </c>
+      <c r="B10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C10" t="s">
+        <v>478</v>
+      </c>
+      <c r="D10" t="s">
+        <v>478</v>
+      </c>
+      <c r="E10">
+        <v>2017</v>
+      </c>
+      <c r="F10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1173</v>
+      </c>
+      <c r="B11" t="s">
+        <v>479</v>
+      </c>
+      <c r="C11" t="s">
+        <v>480</v>
+      </c>
+      <c r="D11" t="s">
+        <v>480</v>
+      </c>
+      <c r="E11">
+        <v>2016</v>
+      </c>
+      <c r="F11" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1182</v>
+      </c>
+      <c r="B12" t="s">
+        <v>482</v>
+      </c>
+      <c r="C12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D12" t="s">
+        <v>483</v>
+      </c>
+      <c r="E12">
+        <v>2017</v>
+      </c>
+      <c r="F12" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1183</v>
+      </c>
+      <c r="B13" t="s">
+        <v>485</v>
+      </c>
+      <c r="C13" t="s">
+        <v>486</v>
+      </c>
+      <c r="D13" t="s">
+        <v>486</v>
+      </c>
+      <c r="E13">
+        <v>2016</v>
+      </c>
+      <c r="F13" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1184</v>
+      </c>
+      <c r="B14" t="s">
+        <v>487</v>
+      </c>
+      <c r="C14" t="s">
+        <v>488</v>
+      </c>
+      <c r="D14" t="s">
+        <v>488</v>
+      </c>
+      <c r="E14">
+        <v>2016</v>
+      </c>
+      <c r="F14" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1190</v>
+      </c>
+      <c r="B15" t="s">
+        <v>489</v>
+      </c>
+      <c r="C15" t="s">
+        <v>490</v>
+      </c>
+      <c r="D15" t="s">
+        <v>490</v>
+      </c>
+      <c r="E15">
+        <v>2016</v>
+      </c>
+      <c r="F15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1350</v>
+      </c>
+      <c r="B16" t="s">
+        <v>492</v>
+      </c>
+      <c r="C16" t="s">
+        <v>493</v>
+      </c>
+      <c r="D16" t="s">
+        <v>493</v>
+      </c>
+      <c r="E16">
+        <v>2016</v>
+      </c>
+      <c r="F16" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1372</v>
+      </c>
+      <c r="B17" t="s">
+        <v>494</v>
+      </c>
+      <c r="C17" t="s">
+        <v>495</v>
+      </c>
+      <c r="D17" t="s">
+        <v>495</v>
+      </c>
+      <c r="E17">
+        <v>2016</v>
+      </c>
+      <c r="F17" t="s">
+        <v>471</v>
+      </c>
+      <c r="H17" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1662</v>
+      </c>
+      <c r="B18" t="s">
+        <v>496</v>
+      </c>
+      <c r="C18" t="s">
+        <v>497</v>
+      </c>
+      <c r="D18" t="s">
+        <v>497</v>
+      </c>
+      <c r="E18">
+        <v>2017</v>
+      </c>
+      <c r="F18" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1687</v>
+      </c>
+      <c r="B19" t="s">
+        <v>498</v>
+      </c>
+      <c r="C19" t="s">
+        <v>499</v>
+      </c>
+      <c r="D19" t="s">
+        <v>499</v>
+      </c>
+      <c r="E19">
+        <v>2017</v>
+      </c>
+      <c r="F19" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1698</v>
+      </c>
+      <c r="B20" t="s">
+        <v>500</v>
+      </c>
+      <c r="C20" t="s">
+        <v>501</v>
+      </c>
+      <c r="D20" t="s">
+        <v>501</v>
+      </c>
+      <c r="E20">
+        <v>2016</v>
+      </c>
+      <c r="F20" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1700</v>
+      </c>
+      <c r="B21" t="s">
+        <v>503</v>
+      </c>
+      <c r="C21" t="s">
+        <v>504</v>
+      </c>
+      <c r="D21" t="s">
+        <v>505</v>
+      </c>
+      <c r="E21">
+        <v>2016</v>
+      </c>
+      <c r="F21" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1705</v>
+      </c>
+      <c r="B22" t="s">
+        <v>506</v>
+      </c>
+      <c r="C22" t="s">
+        <v>507</v>
+      </c>
+      <c r="D22" t="s">
+        <v>508</v>
+      </c>
+      <c r="E22">
+        <v>2016</v>
+      </c>
+      <c r="F22" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1721</v>
+      </c>
+      <c r="B23" t="s">
+        <v>509</v>
+      </c>
+      <c r="C23" t="s">
+        <v>510</v>
+      </c>
+      <c r="D23" t="s">
+        <v>511</v>
+      </c>
+      <c r="E23">
+        <v>2016</v>
+      </c>
+      <c r="F23" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1786</v>
+      </c>
+      <c r="B24" t="s">
+        <v>512</v>
+      </c>
+      <c r="C24" t="s">
+        <v>513</v>
+      </c>
+      <c r="D24" t="s">
+        <v>513</v>
+      </c>
+      <c r="E24">
+        <v>2016</v>
+      </c>
+      <c r="F24" t="s">
+        <v>514</v>
+      </c>
+      <c r="H24" t="s">
+        <v>472</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="97.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>206</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>305</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>308</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>407</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>472</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>568</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="114" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>635</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>651</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>702</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>783</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="228" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>820</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>830</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>843</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>981</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1022</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>1066</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>1084</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>1128</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>1160</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>1257</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>1290</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>1376</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>1491</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>1511</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>1593</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>1609</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="21.625" customWidth="1"/>
+    <col min="10" max="10" width="92.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>92</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>94</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>181</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>496</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>512</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="114" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>565</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>583</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>595</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>652</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>704</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>717</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>722</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>755</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="114" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>756</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>772</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>818</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>1104</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>1204</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="285" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>1205</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2018</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="228" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>1246</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>1261</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="285" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>1429</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="114" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>1533</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>1551</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>1615</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>1760</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="34.375" customWidth="1"/>
+    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="102.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>130</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>192</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>286</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>289</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="199.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>291</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="114" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>292</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="185.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>317</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>388</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>558</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>645</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>673</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>686</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>687</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>692</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="128.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>706</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>724</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="171" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>948</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>964</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2016</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>